--- a/5.Print-Backlog/Sprint-1.xlsx
+++ b/5.Print-Backlog/Sprint-1.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\caps1\5.Print-Backlog\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Estimate" sheetId="1" r:id="rId1"/>
+    <sheet name="Actual" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="45">
   <si>
     <t>No</t>
   </si>
@@ -241,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -356,11 +350,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -440,7 +447,13 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,6 +473,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,6 +494,379 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Actual!$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Actual!$G$1:$Z$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43376</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43378</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43380</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43381</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43382</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43383</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43384</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43385</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43387</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43388</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43389</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43390</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Actual!$G$33:$Z$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Actual!$F$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Actual!$G$1:$Z$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43376</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43378</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43379</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43380</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43381</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43382</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43383</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43384</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43385</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43386</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43387</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43388</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43389</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43390</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Actual!$G$34:$Z$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="202442624"/>
+        <c:axId val="202454528"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="202442624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="202454528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="202454528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="202442624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>326570</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,7 +912,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,7 +947,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -764,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF34"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,31 +1167,29 @@
     <col min="2" max="2" width="40.42578125" customWidth="1"/>
     <col min="3" max="3" width="55.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" customWidth="1"/>
-    <col min="21" max="22" width="12.85546875" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" customWidth="1"/>
-    <col min="24" max="26" width="13" customWidth="1"/>
-    <col min="27" max="27" width="12.85546875" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" customWidth="1"/>
-    <col min="29" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" customWidth="1"/>
-    <col min="31" max="31" width="12.85546875" customWidth="1"/>
-    <col min="32" max="32" width="12.42578125" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" customWidth="1"/>
+    <col min="20" max="21" width="12.85546875" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="23" max="25" width="13" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" customWidth="1"/>
+    <col min="28" max="28" width="13" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" customWidth="1"/>
+    <col min="31" max="31" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -815,81 +1205,1534 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
+      <c r="F1" s="6">
+        <v>43371</v>
       </c>
       <c r="G1" s="6">
-        <v>43371</v>
+        <v>43372</v>
       </c>
       <c r="H1" s="6">
-        <v>43372</v>
+        <v>43373</v>
       </c>
       <c r="I1" s="6">
-        <v>43373</v>
+        <v>43374</v>
       </c>
       <c r="J1" s="6">
-        <v>43374</v>
+        <v>43375</v>
       </c>
       <c r="K1" s="6">
-        <v>43375</v>
+        <v>43376</v>
       </c>
       <c r="L1" s="6">
-        <v>43376</v>
+        <v>43377</v>
       </c>
       <c r="M1" s="6">
-        <v>43377</v>
+        <v>43378</v>
       </c>
       <c r="N1" s="6">
-        <v>43378</v>
+        <v>43379</v>
       </c>
       <c r="O1" s="6">
-        <v>43379</v>
+        <v>43380</v>
       </c>
       <c r="P1" s="6">
-        <v>43380</v>
+        <v>43381</v>
       </c>
       <c r="Q1" s="6">
-        <v>43381</v>
+        <v>43382</v>
       </c>
       <c r="R1" s="6">
-        <v>43382</v>
+        <v>43383</v>
       </c>
       <c r="S1" s="6">
-        <v>43383</v>
+        <v>43384</v>
       </c>
       <c r="T1" s="6">
-        <v>43384</v>
+        <v>43385</v>
       </c>
       <c r="U1" s="6">
-        <v>43385</v>
+        <v>43386</v>
       </c>
       <c r="V1" s="6">
-        <v>43386</v>
+        <v>43387</v>
       </c>
       <c r="W1" s="6">
-        <v>43387</v>
+        <v>43388</v>
       </c>
       <c r="X1" s="6">
-        <v>43388</v>
+        <v>43389</v>
       </c>
       <c r="Y1" s="6">
-        <v>43389</v>
-      </c>
-      <c r="Z1" s="6">
         <v>43390</v>
       </c>
+      <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
       <c r="AD1" s="7"/>
       <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-    </row>
-    <row r="2" spans="1:32" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:31" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+    </row>
+    <row r="3" spans="1:31" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+    </row>
+    <row r="4" spans="1:31" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+    </row>
+    <row r="5" spans="1:31" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+    </row>
+    <row r="6" spans="1:31" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+    </row>
+    <row r="7" spans="1:31" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+    </row>
+    <row r="8" spans="1:31" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+    </row>
+    <row r="9" spans="1:31" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+    </row>
+    <row r="10" spans="1:31" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+    </row>
+    <row r="11" spans="1:31" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>10</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+    </row>
+    <row r="12" spans="1:31" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
+        <v>11</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+    </row>
+    <row r="13" spans="1:31" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+    </row>
+    <row r="14" spans="1:31" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <v>13</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+    </row>
+    <row r="15" spans="1:31" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+    </row>
+    <row r="16" spans="1:31" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28">
+        <v>15</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+    </row>
+    <row r="17" spans="1:31" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28">
+        <v>16</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+    </row>
+    <row r="18" spans="1:31" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28">
+        <v>17</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+    </row>
+    <row r="19" spans="1:31" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28">
+        <v>18</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+    </row>
+    <row r="20" spans="1:31" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28">
+        <v>19</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+    </row>
+    <row r="21" spans="1:31" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28">
+        <v>20</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+    </row>
+    <row r="22" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <v>21</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+    </row>
+    <row r="23" spans="1:31" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+    </row>
+    <row r="24" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28">
+        <v>23</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+    </row>
+    <row r="25" spans="1:31" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <v>24</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+    </row>
+    <row r="26" spans="1:31" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
+        <v>25</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+    </row>
+    <row r="27" spans="1:31" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28">
+        <v>26</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+    </row>
+    <row r="28" spans="1:31" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+    </row>
+    <row r="29" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+    </row>
+    <row r="30" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+    </row>
+    <row r="31" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="8"/>
+    </row>
+    <row r="32" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="8"/>
+    </row>
+    <row r="33" spans="1:31" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2">
+        <f t="shared" ref="F33:Y33" si="0">SUM(F2:F32)</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
+    <col min="25" max="26" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6">
+        <v>43371</v>
+      </c>
+      <c r="H1" s="6">
+        <v>43372</v>
+      </c>
+      <c r="I1" s="6">
+        <v>43373</v>
+      </c>
+      <c r="J1" s="6">
+        <v>43374</v>
+      </c>
+      <c r="K1" s="6">
+        <v>43375</v>
+      </c>
+      <c r="L1" s="6">
+        <v>43376</v>
+      </c>
+      <c r="M1" s="6">
+        <v>43377</v>
+      </c>
+      <c r="N1" s="6">
+        <v>43378</v>
+      </c>
+      <c r="O1" s="6">
+        <v>43379</v>
+      </c>
+      <c r="P1" s="6">
+        <v>43380</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>43381</v>
+      </c>
+      <c r="R1" s="6">
+        <v>43382</v>
+      </c>
+      <c r="S1" s="6">
+        <v>43383</v>
+      </c>
+      <c r="T1" s="6">
+        <v>43384</v>
+      </c>
+      <c r="U1" s="6">
+        <v>43385</v>
+      </c>
+      <c r="V1" s="6">
+        <v>43386</v>
+      </c>
+      <c r="W1" s="6">
+        <v>43387</v>
+      </c>
+      <c r="X1" s="6">
+        <v>43388</v>
+      </c>
+      <c r="Y1" s="6">
+        <v>43389</v>
+      </c>
+      <c r="Z1" s="6">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31"/>
       <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
@@ -922,18 +2765,12 @@
       <c r="X2" s="24"/>
       <c r="Y2" s="24"/>
       <c r="Z2" s="24"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-    </row>
-    <row r="3" spans="1:32" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+    </row>
+    <row r="3" spans="1:26" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="14" t="s">
         <v>18</v>
       </c>
@@ -964,18 +2801,12 @@
       <c r="X3" s="24"/>
       <c r="Y3" s="24"/>
       <c r="Z3" s="24"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-    </row>
-    <row r="4" spans="1:32" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>4</v>
-      </c>
-      <c r="B4" s="31" t="s">
+    </row>
+    <row r="4" spans="1:26" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -1008,18 +2839,12 @@
       <c r="X4" s="24"/>
       <c r="Y4" s="24"/>
       <c r="Z4" s="24"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-    </row>
-    <row r="5" spans="1:32" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>5</v>
-      </c>
-      <c r="B5" s="30"/>
+    </row>
+    <row r="5" spans="1:26" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32"/>
       <c r="C5" s="14" t="s">
         <v>30</v>
       </c>
@@ -1050,18 +2875,12 @@
       <c r="X5" s="24"/>
       <c r="Y5" s="24"/>
       <c r="Z5" s="24"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-    </row>
-    <row r="6" spans="1:32" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>6</v>
-      </c>
-      <c r="B6" s="30"/>
+    </row>
+    <row r="6" spans="1:26" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32"/>
       <c r="C6" s="14" t="s">
         <v>31</v>
       </c>
@@ -1092,18 +2911,12 @@
       <c r="X6" s="24"/>
       <c r="Y6" s="24"/>
       <c r="Z6" s="24"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-    </row>
-    <row r="7" spans="1:32" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>7</v>
-      </c>
-      <c r="B7" s="32"/>
+    </row>
+    <row r="7" spans="1:26" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="34"/>
       <c r="C7" s="14" t="s">
         <v>32</v>
       </c>
@@ -1134,18 +2947,12 @@
       <c r="X7" s="24"/>
       <c r="Y7" s="24"/>
       <c r="Z7" s="24"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-    </row>
-    <row r="8" spans="1:32" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>8</v>
-      </c>
-      <c r="B8" s="34" t="s">
+    </row>
+    <row r="8" spans="1:26" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -1176,18 +2983,12 @@
       <c r="X8" s="24"/>
       <c r="Y8" s="24"/>
       <c r="Z8" s="24"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-    </row>
-    <row r="9" spans="1:32" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>9</v>
-      </c>
-      <c r="B9" s="33"/>
+    </row>
+    <row r="9" spans="1:26" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35"/>
       <c r="C9" s="14" t="s">
         <v>38</v>
       </c>
@@ -1216,18 +3017,12 @@
       <c r="X9" s="24"/>
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-    </row>
-    <row r="10" spans="1:32" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>10</v>
-      </c>
-      <c r="B10" s="33"/>
+    </row>
+    <row r="10" spans="1:26" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35"/>
       <c r="C10" s="14" t="s">
         <v>40</v>
       </c>
@@ -1256,18 +3051,12 @@
       <c r="X10" s="24"/>
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-    </row>
-    <row r="11" spans="1:32" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>11</v>
-      </c>
-      <c r="B11" s="33"/>
+    </row>
+    <row r="11" spans="1:26" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="35"/>
       <c r="C11" s="14" t="s">
         <v>39</v>
       </c>
@@ -1296,18 +3085,12 @@
       <c r="X11" s="24"/>
       <c r="Y11" s="24"/>
       <c r="Z11" s="24"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-    </row>
-    <row r="12" spans="1:32" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>12</v>
-      </c>
-      <c r="B12" s="34" t="s">
+    </row>
+    <row r="12" spans="1:26" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -1338,18 +3121,12 @@
       <c r="X12" s="24"/>
       <c r="Y12" s="24"/>
       <c r="Z12" s="24"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-    </row>
-    <row r="13" spans="1:32" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>13</v>
-      </c>
-      <c r="B13" s="33"/>
+    </row>
+    <row r="13" spans="1:26" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35"/>
       <c r="C13" s="14" t="s">
         <v>41</v>
       </c>
@@ -1378,18 +3155,12 @@
       <c r="X13" s="24"/>
       <c r="Y13" s="24"/>
       <c r="Z13" s="24"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-    </row>
-    <row r="14" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>14</v>
-      </c>
-      <c r="B14" s="33"/>
+    </row>
+    <row r="14" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>13</v>
+      </c>
+      <c r="B14" s="35"/>
       <c r="C14" s="20" t="s">
         <v>42</v>
       </c>
@@ -1418,18 +3189,12 @@
       <c r="X14" s="24"/>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-    </row>
-    <row r="15" spans="1:32" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>15</v>
-      </c>
-      <c r="B15" s="31" t="s">
+    </row>
+    <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -1460,18 +3225,12 @@
       <c r="X15" s="24"/>
       <c r="Y15" s="24"/>
       <c r="Z15" s="24"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-    </row>
-    <row r="16" spans="1:32" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>16</v>
-      </c>
-      <c r="B16" s="30"/>
+    </row>
+    <row r="16" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30">
+        <v>15</v>
+      </c>
+      <c r="B16" s="32"/>
       <c r="C16" s="14" t="s">
         <v>44</v>
       </c>
@@ -1500,18 +3259,12 @@
       <c r="X16" s="24"/>
       <c r="Y16" s="24"/>
       <c r="Z16" s="24"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-    </row>
-    <row r="17" spans="1:32" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>17</v>
-      </c>
-      <c r="B17" s="30"/>
+    </row>
+    <row r="17" spans="1:26" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30">
+        <v>16</v>
+      </c>
+      <c r="B17" s="32"/>
       <c r="C17" s="14" t="s">
         <v>19</v>
       </c>
@@ -1540,18 +3293,12 @@
       <c r="X17" s="24"/>
       <c r="Y17" s="24"/>
       <c r="Z17" s="24"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-    </row>
-    <row r="18" spans="1:32" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>18</v>
-      </c>
-      <c r="B18" s="32"/>
+    </row>
+    <row r="18" spans="1:26" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30">
+        <v>17</v>
+      </c>
+      <c r="B18" s="34"/>
       <c r="C18" s="14" t="s">
         <v>20</v>
       </c>
@@ -1580,18 +3327,12 @@
       <c r="X18" s="24"/>
       <c r="Y18" s="24"/>
       <c r="Z18" s="24"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-    </row>
-    <row r="19" spans="1:32" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>19</v>
-      </c>
-      <c r="B19" s="31" t="s">
+    </row>
+    <row r="19" spans="1:26" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30">
+        <v>18</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -1622,18 +3363,12 @@
       <c r="X19" s="24"/>
       <c r="Y19" s="24"/>
       <c r="Z19" s="24"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-    </row>
-    <row r="20" spans="1:32" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>20</v>
-      </c>
-      <c r="B20" s="30"/>
+    </row>
+    <row r="20" spans="1:26" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30">
+        <v>19</v>
+      </c>
+      <c r="B20" s="32"/>
       <c r="C20" s="14" t="s">
         <v>21</v>
       </c>
@@ -1662,18 +3397,12 @@
       <c r="X20" s="24"/>
       <c r="Y20" s="24"/>
       <c r="Z20" s="24"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-    </row>
-    <row r="21" spans="1:32" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>21</v>
-      </c>
-      <c r="B21" s="32"/>
+    </row>
+    <row r="21" spans="1:26" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30">
+        <v>20</v>
+      </c>
+      <c r="B21" s="34"/>
       <c r="C21" s="14" t="s">
         <v>21</v>
       </c>
@@ -1702,18 +3431,12 @@
       <c r="X21" s="24"/>
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-    </row>
-    <row r="22" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>22</v>
-      </c>
-      <c r="B22" s="33"/>
+    </row>
+    <row r="22" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>21</v>
+      </c>
+      <c r="B22" s="35"/>
       <c r="C22" s="13" t="s">
         <v>8</v>
       </c>
@@ -1742,18 +3465,12 @@
       <c r="X22" s="24"/>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-    </row>
-    <row r="23" spans="1:32" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>23</v>
-      </c>
-      <c r="B23" s="33"/>
+    </row>
+    <row r="23" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35"/>
       <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
@@ -1782,18 +3499,12 @@
       <c r="X23" s="24"/>
       <c r="Y23" s="24"/>
       <c r="Z23" s="24"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-    </row>
-    <row r="24" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>24</v>
-      </c>
-      <c r="B24" s="33"/>
+    </row>
+    <row r="24" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>23</v>
+      </c>
+      <c r="B24" s="35"/>
       <c r="C24" s="4" t="s">
         <v>22</v>
       </c>
@@ -1822,18 +3533,12 @@
       <c r="X24" s="24"/>
       <c r="Y24" s="24"/>
       <c r="Z24" s="24"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-    </row>
-    <row r="25" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>25</v>
-      </c>
-      <c r="B25" s="33"/>
+    </row>
+    <row r="25" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>24</v>
+      </c>
+      <c r="B25" s="35"/>
       <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
@@ -1862,18 +3567,12 @@
       <c r="X25" s="24"/>
       <c r="Y25" s="24"/>
       <c r="Z25" s="24"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-    </row>
-    <row r="26" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>26</v>
-      </c>
-      <c r="B26" s="33"/>
+    </row>
+    <row r="26" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>25</v>
+      </c>
+      <c r="B26" s="35"/>
       <c r="C26" s="4" t="s">
         <v>24</v>
       </c>
@@ -1902,18 +3601,12 @@
       <c r="X26" s="24"/>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-    </row>
-    <row r="27" spans="1:32" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>27</v>
-      </c>
-      <c r="B27" s="33"/>
+    </row>
+    <row r="27" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>26</v>
+      </c>
+      <c r="B27" s="35"/>
       <c r="C27" s="13" t="s">
         <v>25</v>
       </c>
@@ -1942,18 +3635,12 @@
       <c r="X27" s="24"/>
       <c r="Y27" s="24"/>
       <c r="Z27" s="24"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-    </row>
-    <row r="28" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>28</v>
-      </c>
-      <c r="B28" s="33"/>
+    </row>
+    <row r="28" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <v>27</v>
+      </c>
+      <c r="B28" s="35"/>
       <c r="C28" s="13" t="s">
         <v>26</v>
       </c>
@@ -1982,19 +3669,13 @@
       <c r="X28" s="24"/>
       <c r="Y28" s="24"/>
       <c r="Z28" s="24"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8"/>
-    </row>
-    <row r="29" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>29</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="5" t="s">
+    </row>
+    <row r="29" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>28</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="12" t="s">
@@ -2022,19 +3703,13 @@
       <c r="X29" s="17"/>
       <c r="Y29" s="17"/>
       <c r="Z29" s="17"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
-    </row>
-    <row r="30" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>30</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="5" t="s">
+    </row>
+    <row r="30" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="12" t="s">
@@ -2062,19 +3737,13 @@
       <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
       <c r="Z30" s="17"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
-    </row>
-    <row r="31" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>31</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="5" t="s">
+    </row>
+    <row r="31" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <v>30</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="12" t="s">
@@ -2102,19 +3771,13 @@
       <c r="X31" s="17"/>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="8"/>
-    </row>
-    <row r="32" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>32</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="5" t="s">
+    </row>
+    <row r="32" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30">
+        <v>31</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="29" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="12" t="s">
@@ -2142,18 +3805,12 @@
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="8"/>
-    </row>
-    <row r="33" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+    </row>
+    <row r="33" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
         <v>14</v>
@@ -2178,17 +3835,11 @@
       <c r="X33" s="24"/>
       <c r="Y33" s="24"/>
       <c r="Z33" s="24"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-    </row>
-    <row r="34" spans="1:32" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="5"/>
+    </row>
+    <row r="34" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="12"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
@@ -2274,38 +3925,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B28"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B22:B28"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/5.Print-Backlog/Sprint-1.xlsx
+++ b/5.Print-Backlog/Sprint-1.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\caps1\5.Print-Backlog\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate" sheetId="1" r:id="rId1"/>
     <sheet name="Actual" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="46">
   <si>
     <t>No</t>
   </si>
@@ -166,6 +171,9 @@
   </si>
   <si>
     <t>Design a Database for waiting page(waiting to connect with other player)</t>
+  </si>
+  <si>
+    <t>Code front-end for playtime</t>
   </si>
 </sst>
 </file>
@@ -367,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -479,6 +487,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,13 +789,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202442624"/>
-        <c:axId val="202454528"/>
+        <c:axId val="1780821168"/>
+        <c:axId val="1781270928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="202442624"/>
+        <c:axId val="1780821168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -794,14 +804,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202454528"/>
+        <c:crossAx val="1781270928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="202454528"/>
+        <c:axId val="1781270928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,7 +822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202442624"/>
+        <c:crossAx val="1780821168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -912,7 +922,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -947,7 +957,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1158,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1206,7 @@
       <c r="B1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="39" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1276,7 +1286,7 @@
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
@@ -1327,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="23"/>
@@ -1370,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
@@ -1411,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -1493,7 +1503,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
@@ -1535,7 +1545,9 @@
       <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="25"/>
@@ -1574,7 +1586,9 @@
       <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="24"/>
@@ -1613,7 +1627,9 @@
       <c r="D10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="24"/>
@@ -1652,7 +1668,9 @@
       <c r="D11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="24"/>
@@ -1693,7 +1711,9 @@
       <c r="D12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="24"/>
@@ -1732,7 +1752,9 @@
       <c r="D13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>12</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -1771,7 +1793,9 @@
       <c r="D14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>8</v>
+      </c>
       <c r="F14" s="17"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
@@ -1812,7 +1836,9 @@
       <c r="D15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
       <c r="F15" s="17"/>
       <c r="G15" s="27"/>
       <c r="H15" s="26"/>
@@ -1851,7 +1877,9 @@
       <c r="D16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>8</v>
+      </c>
       <c r="F16" s="17"/>
       <c r="G16" s="27"/>
       <c r="H16" s="26"/>
@@ -1890,7 +1918,9 @@
       <c r="D17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
       <c r="F17" s="17"/>
       <c r="G17" s="27"/>
       <c r="H17" s="26"/>
@@ -1929,7 +1959,9 @@
       <c r="D18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>20</v>
+      </c>
       <c r="F18" s="17"/>
       <c r="G18" s="27"/>
       <c r="H18" s="26"/>
@@ -1970,7 +2002,9 @@
       <c r="D19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
       <c r="F19" s="17"/>
       <c r="G19" s="27"/>
       <c r="H19" s="26"/>
@@ -2004,12 +2038,14 @@
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="14" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>4</v>
+      </c>
       <c r="F20" s="17"/>
       <c r="G20" s="27"/>
       <c r="H20" s="26"/>
@@ -2048,7 +2084,9 @@
       <c r="D21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
       <c r="F21" s="17"/>
       <c r="G21" s="27"/>
       <c r="H21" s="26"/>
@@ -2087,7 +2125,9 @@
       <c r="D22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
       <c r="F22" s="17"/>
       <c r="G22" s="23"/>
       <c r="H22" s="25"/>
@@ -2126,7 +2166,9 @@
       <c r="D23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
@@ -2165,7 +2207,9 @@
       <c r="D24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
@@ -2204,7 +2248,9 @@
       <c r="D25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -2243,7 +2289,9 @@
       <c r="D26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
@@ -2282,7 +2330,9 @@
       <c r="D27" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
@@ -2321,7 +2371,9 @@
       <c r="D28" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
       <c r="F28" s="17"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
@@ -2360,7 +2412,9 @@
       <c r="D29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -2399,7 +2453,9 @@
       <c r="D30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
@@ -2438,7 +2494,9 @@
       <c r="D31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
@@ -2477,7 +2535,9 @@
       <c r="D32" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
@@ -2617,7 +2677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>

--- a/5.Print-Backlog/Sprint-1.xlsx
+++ b/5.Print-Backlog/Sprint-1.xlsx
@@ -464,7 +464,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -488,7 +488,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,11 +790,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1780821168"/>
-        <c:axId val="1781270928"/>
+        <c:axId val="1838620688"/>
+        <c:axId val="1838606544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1780821168"/>
+        <c:axId val="1838620688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,14 +804,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1781270928"/>
+        <c:crossAx val="1838606544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1781270928"/>
+        <c:axId val="1838606544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,14 +822,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1780821168"/>
+        <c:crossAx val="1838620688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1166,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE33"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1205,7 @@
       <c r="B1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1503,7 +1502,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
@@ -1753,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -1794,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="26"/>
@@ -1878,7 +1877,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="27"/>
@@ -1960,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="27"/>
@@ -2003,7 +2002,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="27"/>
@@ -2044,7 +2043,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="27"/>
@@ -2085,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="27"/>
@@ -2249,7 +2248,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -2290,7 +2289,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -2331,7 +2330,7 @@
         <v>7</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
@@ -2657,6 +2656,12 @@
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
       <c r="AE33" s="8"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f>SUM(E2:E32)</f>
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2792,7 +2797,7 @@
       <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="14" t="s">
         <v>6</v>
       </c>

--- a/5.Print-Backlog/Sprint-1.xlsx
+++ b/5.Print-Backlog/Sprint-1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\caps1\5.Print-Backlog\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Actual" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="47">
   <si>
     <t>No</t>
   </si>
@@ -174,6 +169,9 @@
   </si>
   <si>
     <t>Code front-end for playtime</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -375,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -466,6 +464,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,6 +490,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,12 +811,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1838620688"/>
-        <c:axId val="1838606544"/>
+        <c:axId val="201655424"/>
+        <c:axId val="201656960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1838620688"/>
+        <c:axId val="201655424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,14 +827,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1838606544"/>
+        <c:crossAx val="201656960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1838606544"/>
+        <c:axId val="201656960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,7 +845,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1838620688"/>
+        <c:crossAx val="201655424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -921,7 +944,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -956,7 +979,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1165,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE38"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,38 +1308,76 @@
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="42">
         <v>1</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="43">
         <v>1</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
+      <c r="G2" s="44">
+        <v>0</v>
+      </c>
+      <c r="H2" s="44">
+        <v>0</v>
+      </c>
+      <c r="I2" s="44">
+        <v>0</v>
+      </c>
+      <c r="J2" s="44">
+        <v>0</v>
+      </c>
+      <c r="K2" s="44">
+        <v>0</v>
+      </c>
+      <c r="L2" s="44">
+        <v>0</v>
+      </c>
+      <c r="M2" s="44">
+        <v>0</v>
+      </c>
+      <c r="N2" s="44">
+        <v>0</v>
+      </c>
+      <c r="O2" s="44">
+        <v>0</v>
+      </c>
+      <c r="P2" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="44">
+        <v>0</v>
+      </c>
+      <c r="R2" s="44">
+        <v>0</v>
+      </c>
+      <c r="S2" s="44">
+        <v>0</v>
+      </c>
+      <c r="T2" s="44">
+        <v>0</v>
+      </c>
+      <c r="U2" s="44">
+        <v>0</v>
+      </c>
+      <c r="V2" s="44">
+        <v>0</v>
+      </c>
+      <c r="W2" s="44">
+        <v>0</v>
+      </c>
+      <c r="X2" s="44">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="44">
+        <v>0</v>
+      </c>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
@@ -1328,36 +1389,76 @@
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="32">
         <v>1</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
+      <c r="F3" s="43">
+        <v>1</v>
+      </c>
+      <c r="G3" s="44">
+        <v>0</v>
+      </c>
+      <c r="H3" s="44">
+        <v>0</v>
+      </c>
+      <c r="I3" s="44">
+        <v>0</v>
+      </c>
+      <c r="J3" s="44">
+        <v>0</v>
+      </c>
+      <c r="K3" s="44">
+        <v>0</v>
+      </c>
+      <c r="L3" s="44">
+        <v>0</v>
+      </c>
+      <c r="M3" s="44">
+        <v>0</v>
+      </c>
+      <c r="N3" s="44">
+        <v>0</v>
+      </c>
+      <c r="O3" s="44">
+        <v>0</v>
+      </c>
+      <c r="P3" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="44">
+        <v>0</v>
+      </c>
+      <c r="R3" s="44">
+        <v>0</v>
+      </c>
+      <c r="S3" s="44">
+        <v>0</v>
+      </c>
+      <c r="T3" s="44">
+        <v>0</v>
+      </c>
+      <c r="U3" s="44">
+        <v>0</v>
+      </c>
+      <c r="V3" s="44">
+        <v>0</v>
+      </c>
+      <c r="W3" s="44">
+        <v>0</v>
+      </c>
+      <c r="X3" s="44">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="44">
+        <v>0</v>
+      </c>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
@@ -1369,7 +1470,7 @@
       <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -1378,29 +1479,69 @@
       <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="32">
         <v>2</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
+      <c r="F4" s="43">
+        <v>2</v>
+      </c>
+      <c r="G4" s="43">
+        <v>0</v>
+      </c>
+      <c r="H4" s="43">
+        <v>0</v>
+      </c>
+      <c r="I4" s="43">
+        <v>0</v>
+      </c>
+      <c r="J4" s="43">
+        <v>0</v>
+      </c>
+      <c r="K4" s="43">
+        <v>0</v>
+      </c>
+      <c r="L4" s="43">
+        <v>0</v>
+      </c>
+      <c r="M4" s="43">
+        <v>0</v>
+      </c>
+      <c r="N4" s="43">
+        <v>0</v>
+      </c>
+      <c r="O4" s="43">
+        <v>0</v>
+      </c>
+      <c r="P4" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>0</v>
+      </c>
+      <c r="R4" s="43">
+        <v>0</v>
+      </c>
+      <c r="S4" s="43">
+        <v>0</v>
+      </c>
+      <c r="T4" s="43">
+        <v>0</v>
+      </c>
+      <c r="U4" s="43">
+        <v>0</v>
+      </c>
+      <c r="V4" s="43">
+        <v>0</v>
+      </c>
+      <c r="W4" s="43">
+        <v>0</v>
+      </c>
+      <c r="X4" s="43">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="43">
+        <v>0</v>
+      </c>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
@@ -1412,36 +1553,76 @@
       <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="32">
         <v>2</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
+      <c r="F5" s="43">
+        <v>0</v>
+      </c>
+      <c r="G5" s="43">
+        <v>2</v>
+      </c>
+      <c r="H5" s="45">
+        <v>0</v>
+      </c>
+      <c r="I5" s="45">
+        <v>0</v>
+      </c>
+      <c r="J5" s="45">
+        <v>0</v>
+      </c>
+      <c r="K5" s="45">
+        <v>0</v>
+      </c>
+      <c r="L5" s="45">
+        <v>0</v>
+      </c>
+      <c r="M5" s="45">
+        <v>0</v>
+      </c>
+      <c r="N5" s="45">
+        <v>0</v>
+      </c>
+      <c r="O5" s="45">
+        <v>0</v>
+      </c>
+      <c r="P5" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="45">
+        <v>0</v>
+      </c>
+      <c r="R5" s="45">
+        <v>0</v>
+      </c>
+      <c r="S5" s="45">
+        <v>0</v>
+      </c>
+      <c r="T5" s="45">
+        <v>0</v>
+      </c>
+      <c r="U5" s="45">
+        <v>0</v>
+      </c>
+      <c r="V5" s="45">
+        <v>0</v>
+      </c>
+      <c r="W5" s="45">
+        <v>0</v>
+      </c>
+      <c r="X5" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="45">
+        <v>0</v>
+      </c>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
@@ -1453,36 +1634,76 @@
       <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="32">
         <v>1</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
+      <c r="F6" s="43">
+        <v>0</v>
+      </c>
+      <c r="G6" s="43">
+        <v>1</v>
+      </c>
+      <c r="H6" s="45">
+        <v>0</v>
+      </c>
+      <c r="I6" s="45">
+        <v>0</v>
+      </c>
+      <c r="J6" s="45">
+        <v>0</v>
+      </c>
+      <c r="K6" s="45">
+        <v>0</v>
+      </c>
+      <c r="L6" s="45">
+        <v>0</v>
+      </c>
+      <c r="M6" s="45">
+        <v>0</v>
+      </c>
+      <c r="N6" s="45">
+        <v>0</v>
+      </c>
+      <c r="O6" s="45">
+        <v>0</v>
+      </c>
+      <c r="P6" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="45">
+        <v>0</v>
+      </c>
+      <c r="R6" s="45">
+        <v>0</v>
+      </c>
+      <c r="S6" s="45">
+        <v>0</v>
+      </c>
+      <c r="T6" s="45">
+        <v>0</v>
+      </c>
+      <c r="U6" s="45">
+        <v>0</v>
+      </c>
+      <c r="V6" s="45">
+        <v>0</v>
+      </c>
+      <c r="W6" s="45">
+        <v>0</v>
+      </c>
+      <c r="X6" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="45">
+        <v>0</v>
+      </c>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
@@ -1494,36 +1715,76 @@
       <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="32">
         <v>6</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
+      <c r="F7" s="43">
+        <v>0</v>
+      </c>
+      <c r="G7" s="43">
+        <v>1</v>
+      </c>
+      <c r="H7" s="45">
+        <v>4</v>
+      </c>
+      <c r="I7" s="46">
+        <v>1</v>
+      </c>
+      <c r="J7" s="46">
+        <v>0</v>
+      </c>
+      <c r="K7" s="46">
+        <v>0</v>
+      </c>
+      <c r="L7" s="46">
+        <v>0</v>
+      </c>
+      <c r="M7" s="46">
+        <v>0</v>
+      </c>
+      <c r="N7" s="46">
+        <v>0</v>
+      </c>
+      <c r="O7" s="46">
+        <v>0</v>
+      </c>
+      <c r="P7" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="46">
+        <v>0</v>
+      </c>
+      <c r="R7" s="46">
+        <v>0</v>
+      </c>
+      <c r="S7" s="46">
+        <v>0</v>
+      </c>
+      <c r="T7" s="46">
+        <v>0</v>
+      </c>
+      <c r="U7" s="46">
+        <v>0</v>
+      </c>
+      <c r="V7" s="46">
+        <v>0</v>
+      </c>
+      <c r="W7" s="46">
+        <v>0</v>
+      </c>
+      <c r="X7" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="46">
+        <v>0</v>
+      </c>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
@@ -1535,7 +1796,7 @@
       <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -1544,29 +1805,69 @@
       <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="32">
         <v>1</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
+      <c r="F8" s="43">
+        <v>0</v>
+      </c>
+      <c r="G8" s="43">
+        <v>0</v>
+      </c>
+      <c r="H8" s="43">
+        <v>0</v>
+      </c>
+      <c r="I8" s="46">
+        <v>1</v>
+      </c>
+      <c r="J8" s="46">
+        <v>0</v>
+      </c>
+      <c r="K8" s="46">
+        <v>0</v>
+      </c>
+      <c r="L8" s="46">
+        <v>0</v>
+      </c>
+      <c r="M8" s="46">
+        <v>0</v>
+      </c>
+      <c r="N8" s="46">
+        <v>0</v>
+      </c>
+      <c r="O8" s="46">
+        <v>0</v>
+      </c>
+      <c r="P8" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="46">
+        <v>0</v>
+      </c>
+      <c r="R8" s="46">
+        <v>0</v>
+      </c>
+      <c r="S8" s="46">
+        <v>0</v>
+      </c>
+      <c r="T8" s="46">
+        <v>0</v>
+      </c>
+      <c r="U8" s="46">
+        <v>0</v>
+      </c>
+      <c r="V8" s="46">
+        <v>0</v>
+      </c>
+      <c r="W8" s="46">
+        <v>0</v>
+      </c>
+      <c r="X8" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="46">
+        <v>0</v>
+      </c>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
@@ -1578,36 +1879,76 @@
       <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="32">
         <v>2</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
+      <c r="F9" s="43">
+        <v>0</v>
+      </c>
+      <c r="G9" s="43">
+        <v>0</v>
+      </c>
+      <c r="H9" s="43">
+        <v>0</v>
+      </c>
+      <c r="I9" s="46">
+        <v>2</v>
+      </c>
+      <c r="J9" s="45">
+        <v>0</v>
+      </c>
+      <c r="K9" s="45">
+        <v>0</v>
+      </c>
+      <c r="L9" s="45">
+        <v>0</v>
+      </c>
+      <c r="M9" s="45">
+        <v>0</v>
+      </c>
+      <c r="N9" s="45">
+        <v>0</v>
+      </c>
+      <c r="O9" s="45">
+        <v>0</v>
+      </c>
+      <c r="P9" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="45">
+        <v>0</v>
+      </c>
+      <c r="R9" s="45">
+        <v>0</v>
+      </c>
+      <c r="S9" s="45">
+        <v>0</v>
+      </c>
+      <c r="T9" s="45">
+        <v>0</v>
+      </c>
+      <c r="U9" s="45">
+        <v>0</v>
+      </c>
+      <c r="V9" s="45">
+        <v>0</v>
+      </c>
+      <c r="W9" s="45">
+        <v>0</v>
+      </c>
+      <c r="X9" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="45">
+        <v>0</v>
+      </c>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
@@ -1619,36 +1960,76 @@
       <c r="A10" s="28">
         <v>9</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="32">
         <v>1</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
+      <c r="F10" s="43">
+        <v>0</v>
+      </c>
+      <c r="G10" s="43">
+        <v>0</v>
+      </c>
+      <c r="H10" s="43">
+        <v>0</v>
+      </c>
+      <c r="I10" s="46">
+        <v>0</v>
+      </c>
+      <c r="J10" s="47">
+        <v>1</v>
+      </c>
+      <c r="K10" s="46">
+        <v>0</v>
+      </c>
+      <c r="L10" s="46">
+        <v>0</v>
+      </c>
+      <c r="M10" s="46">
+        <v>0</v>
+      </c>
+      <c r="N10" s="46">
+        <v>0</v>
+      </c>
+      <c r="O10" s="46">
+        <v>0</v>
+      </c>
+      <c r="P10" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="46">
+        <v>0</v>
+      </c>
+      <c r="R10" s="46">
+        <v>0</v>
+      </c>
+      <c r="S10" s="46">
+        <v>0</v>
+      </c>
+      <c r="T10" s="46">
+        <v>0</v>
+      </c>
+      <c r="U10" s="46">
+        <v>0</v>
+      </c>
+      <c r="V10" s="46">
+        <v>0</v>
+      </c>
+      <c r="W10" s="46">
+        <v>0</v>
+      </c>
+      <c r="X10" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="46">
+        <v>0</v>
+      </c>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
@@ -1660,36 +2041,76 @@
       <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="32">
         <v>2</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
+      <c r="F11" s="43">
+        <v>0</v>
+      </c>
+      <c r="G11" s="43">
+        <v>0</v>
+      </c>
+      <c r="H11" s="43">
+        <v>0</v>
+      </c>
+      <c r="I11" s="46">
+        <v>0</v>
+      </c>
+      <c r="J11" s="45">
+        <v>2</v>
+      </c>
+      <c r="K11" s="46">
+        <v>0</v>
+      </c>
+      <c r="L11" s="46">
+        <v>0</v>
+      </c>
+      <c r="M11" s="46">
+        <v>0</v>
+      </c>
+      <c r="N11" s="46">
+        <v>0</v>
+      </c>
+      <c r="O11" s="46">
+        <v>0</v>
+      </c>
+      <c r="P11" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="46">
+        <v>0</v>
+      </c>
+      <c r="R11" s="46">
+        <v>0</v>
+      </c>
+      <c r="S11" s="46">
+        <v>0</v>
+      </c>
+      <c r="T11" s="46">
+        <v>0</v>
+      </c>
+      <c r="U11" s="46">
+        <v>0</v>
+      </c>
+      <c r="V11" s="46">
+        <v>0</v>
+      </c>
+      <c r="W11" s="46">
+        <v>0</v>
+      </c>
+      <c r="X11" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="46">
+        <v>0</v>
+      </c>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
@@ -1701,7 +2122,7 @@
       <c r="A12" s="28">
         <v>11</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -1710,29 +2131,69 @@
       <c r="D12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="32">
         <v>2</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
+      <c r="F12" s="43">
+        <v>0</v>
+      </c>
+      <c r="G12" s="43">
+        <v>0</v>
+      </c>
+      <c r="H12" s="43">
+        <v>0</v>
+      </c>
+      <c r="I12" s="46">
+        <v>0</v>
+      </c>
+      <c r="J12" s="47">
+        <v>1</v>
+      </c>
+      <c r="K12" s="46">
+        <v>1</v>
+      </c>
+      <c r="L12" s="46">
+        <v>0</v>
+      </c>
+      <c r="M12" s="46">
+        <v>0</v>
+      </c>
+      <c r="N12" s="46">
+        <v>0</v>
+      </c>
+      <c r="O12" s="46">
+        <v>0</v>
+      </c>
+      <c r="P12" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="46">
+        <v>0</v>
+      </c>
+      <c r="R12" s="46">
+        <v>0</v>
+      </c>
+      <c r="S12" s="46">
+        <v>0</v>
+      </c>
+      <c r="T12" s="46">
+        <v>0</v>
+      </c>
+      <c r="U12" s="46">
+        <v>0</v>
+      </c>
+      <c r="V12" s="46">
+        <v>0</v>
+      </c>
+      <c r="W12" s="46">
+        <v>0</v>
+      </c>
+      <c r="X12" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="46">
+        <v>0</v>
+      </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
@@ -1744,36 +2205,76 @@
       <c r="A13" s="28">
         <v>12</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="32">
         <v>8</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
+      <c r="F13" s="46">
+        <v>0</v>
+      </c>
+      <c r="G13" s="46">
+        <v>0</v>
+      </c>
+      <c r="H13" s="46">
+        <v>0</v>
+      </c>
+      <c r="I13" s="46">
+        <v>0</v>
+      </c>
+      <c r="J13" s="46">
+        <v>0</v>
+      </c>
+      <c r="K13" s="45">
+        <v>3</v>
+      </c>
+      <c r="L13" s="46">
+        <v>4</v>
+      </c>
+      <c r="M13" s="46">
+        <v>1</v>
+      </c>
+      <c r="N13" s="46">
+        <v>0</v>
+      </c>
+      <c r="O13" s="46">
+        <v>0</v>
+      </c>
+      <c r="P13" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="46">
+        <v>0</v>
+      </c>
+      <c r="R13" s="46">
+        <v>0</v>
+      </c>
+      <c r="S13" s="46">
+        <v>0</v>
+      </c>
+      <c r="T13" s="46">
+        <v>0</v>
+      </c>
+      <c r="U13" s="46">
+        <v>0</v>
+      </c>
+      <c r="V13" s="46">
+        <v>0</v>
+      </c>
+      <c r="W13" s="46">
+        <v>0</v>
+      </c>
+      <c r="X13" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="46">
+        <v>0</v>
+      </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
@@ -1785,36 +2286,76 @@
       <c r="A14" s="28">
         <v>13</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="32">
         <v>6</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
+      <c r="F14" s="46">
+        <v>0</v>
+      </c>
+      <c r="G14" s="45">
+        <v>0</v>
+      </c>
+      <c r="H14" s="45">
+        <v>0</v>
+      </c>
+      <c r="I14" s="46">
+        <v>0</v>
+      </c>
+      <c r="J14" s="46">
+        <v>0</v>
+      </c>
+      <c r="K14" s="46">
+        <v>0</v>
+      </c>
+      <c r="L14" s="46">
+        <v>0</v>
+      </c>
+      <c r="M14" s="46">
+        <v>3</v>
+      </c>
+      <c r="N14" s="46">
+        <v>3</v>
+      </c>
+      <c r="O14" s="46">
+        <v>0</v>
+      </c>
+      <c r="P14" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="46">
+        <v>0</v>
+      </c>
+      <c r="R14" s="46">
+        <v>0</v>
+      </c>
+      <c r="S14" s="46">
+        <v>0</v>
+      </c>
+      <c r="T14" s="46">
+        <v>0</v>
+      </c>
+      <c r="U14" s="46">
+        <v>0</v>
+      </c>
+      <c r="V14" s="46">
+        <v>0</v>
+      </c>
+      <c r="W14" s="46">
+        <v>0</v>
+      </c>
+      <c r="X14" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="46">
+        <v>0</v>
+      </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
@@ -1826,7 +2367,7 @@
       <c r="A15" s="28">
         <v>14</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="34" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -1835,29 +2376,69 @@
       <c r="D15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="32">
         <v>3</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
+      <c r="F15" s="46">
+        <v>0</v>
+      </c>
+      <c r="G15" s="45">
+        <v>0</v>
+      </c>
+      <c r="H15" s="45">
+        <v>0</v>
+      </c>
+      <c r="I15" s="46">
+        <v>0</v>
+      </c>
+      <c r="J15" s="46">
+        <v>0</v>
+      </c>
+      <c r="K15" s="46">
+        <v>0</v>
+      </c>
+      <c r="L15" s="46">
+        <v>0</v>
+      </c>
+      <c r="M15" s="46">
+        <v>0</v>
+      </c>
+      <c r="N15" s="46">
+        <v>1</v>
+      </c>
+      <c r="O15" s="46">
+        <v>2</v>
+      </c>
+      <c r="P15" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="46">
+        <v>0</v>
+      </c>
+      <c r="R15" s="46">
+        <v>0</v>
+      </c>
+      <c r="S15" s="46">
+        <v>0</v>
+      </c>
+      <c r="T15" s="46">
+        <v>0</v>
+      </c>
+      <c r="U15" s="46">
+        <v>0</v>
+      </c>
+      <c r="V15" s="46">
+        <v>0</v>
+      </c>
+      <c r="W15" s="46">
+        <v>0</v>
+      </c>
+      <c r="X15" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="46">
+        <v>0</v>
+      </c>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
@@ -1869,36 +2450,76 @@
       <c r="A16" s="28">
         <v>15</v>
       </c>
-      <c r="B16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="32">
         <v>4</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
+      <c r="F16" s="46">
+        <v>0</v>
+      </c>
+      <c r="G16" s="45">
+        <v>0</v>
+      </c>
+      <c r="H16" s="45">
+        <v>0</v>
+      </c>
+      <c r="I16" s="46">
+        <v>0</v>
+      </c>
+      <c r="J16" s="46">
+        <v>0</v>
+      </c>
+      <c r="K16" s="46">
+        <v>0</v>
+      </c>
+      <c r="L16" s="46">
+        <v>0</v>
+      </c>
+      <c r="M16" s="46">
+        <v>0</v>
+      </c>
+      <c r="N16" s="46">
+        <v>0</v>
+      </c>
+      <c r="O16" s="46">
+        <v>2</v>
+      </c>
+      <c r="P16" s="46">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="46">
+        <v>0</v>
+      </c>
+      <c r="R16" s="46">
+        <v>0</v>
+      </c>
+      <c r="S16" s="46">
+        <v>0</v>
+      </c>
+      <c r="T16" s="46">
+        <v>0</v>
+      </c>
+      <c r="U16" s="46">
+        <v>0</v>
+      </c>
+      <c r="V16" s="46">
+        <v>0</v>
+      </c>
+      <c r="W16" s="46">
+        <v>0</v>
+      </c>
+      <c r="X16" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="46">
+        <v>0</v>
+      </c>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
@@ -1910,36 +2531,76 @@
       <c r="A17" s="28">
         <v>16</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="32">
         <v>3</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
+      <c r="F17" s="46">
+        <v>0</v>
+      </c>
+      <c r="G17" s="45">
+        <v>0</v>
+      </c>
+      <c r="H17" s="45">
+        <v>0</v>
+      </c>
+      <c r="I17" s="46">
+        <v>0</v>
+      </c>
+      <c r="J17" s="46">
+        <v>0</v>
+      </c>
+      <c r="K17" s="46">
+        <v>0</v>
+      </c>
+      <c r="L17" s="46">
+        <v>0</v>
+      </c>
+      <c r="M17" s="46">
+        <v>0</v>
+      </c>
+      <c r="N17" s="46">
+        <v>0</v>
+      </c>
+      <c r="O17" s="46">
+        <v>0</v>
+      </c>
+      <c r="P17" s="46">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="46">
+        <v>1</v>
+      </c>
+      <c r="R17" s="46">
+        <v>0</v>
+      </c>
+      <c r="S17" s="46">
+        <v>0</v>
+      </c>
+      <c r="T17" s="46">
+        <v>0</v>
+      </c>
+      <c r="U17" s="46">
+        <v>0</v>
+      </c>
+      <c r="V17" s="46">
+        <v>0</v>
+      </c>
+      <c r="W17" s="46">
+        <v>0</v>
+      </c>
+      <c r="X17" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="46">
+        <v>0</v>
+      </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
@@ -1951,36 +2612,76 @@
       <c r="A18" s="28">
         <v>17</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="32">
         <v>15</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
+      <c r="F18" s="46">
+        <v>0</v>
+      </c>
+      <c r="G18" s="45">
+        <v>0</v>
+      </c>
+      <c r="H18" s="45">
+        <v>0</v>
+      </c>
+      <c r="I18" s="46">
+        <v>0</v>
+      </c>
+      <c r="J18" s="46">
+        <v>0</v>
+      </c>
+      <c r="K18" s="46">
+        <v>0</v>
+      </c>
+      <c r="L18" s="46">
+        <v>0</v>
+      </c>
+      <c r="M18" s="46">
+        <v>0</v>
+      </c>
+      <c r="N18" s="46">
+        <v>0</v>
+      </c>
+      <c r="O18" s="46">
+        <v>0</v>
+      </c>
+      <c r="P18" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="46">
+        <v>3</v>
+      </c>
+      <c r="R18" s="46">
+        <v>4</v>
+      </c>
+      <c r="S18" s="46">
+        <v>4</v>
+      </c>
+      <c r="T18" s="46">
+        <v>4</v>
+      </c>
+      <c r="U18" s="46">
+        <v>4</v>
+      </c>
+      <c r="V18" s="46">
+        <v>0</v>
+      </c>
+      <c r="W18" s="46">
+        <v>0</v>
+      </c>
+      <c r="X18" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="46">
+        <v>0</v>
+      </c>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
@@ -1992,7 +2693,7 @@
       <c r="A19" s="28">
         <v>18</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -2001,29 +2702,69 @@
       <c r="D19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="32">
         <v>1</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
+      <c r="F19" s="46">
+        <v>0</v>
+      </c>
+      <c r="G19" s="45">
+        <v>0</v>
+      </c>
+      <c r="H19" s="45">
+        <v>0</v>
+      </c>
+      <c r="I19" s="46">
+        <v>0</v>
+      </c>
+      <c r="J19" s="46">
+        <v>0</v>
+      </c>
+      <c r="K19" s="46">
+        <v>0</v>
+      </c>
+      <c r="L19" s="46">
+        <v>0</v>
+      </c>
+      <c r="M19" s="46">
+        <v>0</v>
+      </c>
+      <c r="N19" s="46">
+        <v>0</v>
+      </c>
+      <c r="O19" s="46">
+        <v>0</v>
+      </c>
+      <c r="P19" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="46">
+        <v>0</v>
+      </c>
+      <c r="R19" s="46">
+        <v>0</v>
+      </c>
+      <c r="S19" s="46">
+        <v>0</v>
+      </c>
+      <c r="T19" s="46">
+        <v>0</v>
+      </c>
+      <c r="U19" s="46">
+        <v>0</v>
+      </c>
+      <c r="V19" s="46">
+        <v>1</v>
+      </c>
+      <c r="W19" s="46">
+        <v>0</v>
+      </c>
+      <c r="X19" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="46">
+        <v>0</v>
+      </c>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
@@ -2035,36 +2776,76 @@
       <c r="A20" s="28">
         <v>19</v>
       </c>
-      <c r="B20" s="32"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="32">
         <v>2</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
+      <c r="F20" s="46">
+        <v>0</v>
+      </c>
+      <c r="G20" s="45">
+        <v>0</v>
+      </c>
+      <c r="H20" s="45">
+        <v>0</v>
+      </c>
+      <c r="I20" s="46">
+        <v>0</v>
+      </c>
+      <c r="J20" s="46">
+        <v>0</v>
+      </c>
+      <c r="K20" s="46">
+        <v>0</v>
+      </c>
+      <c r="L20" s="46">
+        <v>0</v>
+      </c>
+      <c r="M20" s="46">
+        <v>0</v>
+      </c>
+      <c r="N20" s="46">
+        <v>0</v>
+      </c>
+      <c r="O20" s="46">
+        <v>0</v>
+      </c>
+      <c r="P20" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="46">
+        <v>0</v>
+      </c>
+      <c r="R20" s="46">
+        <v>0</v>
+      </c>
+      <c r="S20" s="46">
+        <v>0</v>
+      </c>
+      <c r="T20" s="46">
+        <v>0</v>
+      </c>
+      <c r="U20" s="46">
+        <v>0</v>
+      </c>
+      <c r="V20" s="46">
+        <v>2</v>
+      </c>
+      <c r="W20" s="46">
+        <v>0</v>
+      </c>
+      <c r="X20" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="46">
+        <v>0</v>
+      </c>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
@@ -2076,36 +2857,76 @@
       <c r="A21" s="28">
         <v>20</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="32">
         <v>1</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
+      <c r="F21" s="46">
+        <v>0</v>
+      </c>
+      <c r="G21" s="45">
+        <v>0</v>
+      </c>
+      <c r="H21" s="45">
+        <v>0</v>
+      </c>
+      <c r="I21" s="46">
+        <v>0</v>
+      </c>
+      <c r="J21" s="46">
+        <v>0</v>
+      </c>
+      <c r="K21" s="46">
+        <v>0</v>
+      </c>
+      <c r="L21" s="46">
+        <v>0</v>
+      </c>
+      <c r="M21" s="46">
+        <v>0</v>
+      </c>
+      <c r="N21" s="46">
+        <v>0</v>
+      </c>
+      <c r="O21" s="46">
+        <v>0</v>
+      </c>
+      <c r="P21" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="46">
+        <v>0</v>
+      </c>
+      <c r="R21" s="46">
+        <v>0</v>
+      </c>
+      <c r="S21" s="46">
+        <v>0</v>
+      </c>
+      <c r="T21" s="46">
+        <v>0</v>
+      </c>
+      <c r="U21" s="46">
+        <v>0</v>
+      </c>
+      <c r="V21" s="46">
+        <v>1</v>
+      </c>
+      <c r="W21" s="46">
+        <v>0</v>
+      </c>
+      <c r="X21" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="46">
+        <v>0</v>
+      </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
@@ -2117,36 +2938,76 @@
       <c r="A22" s="28">
         <v>21</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="32">
         <v>1</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
+      <c r="F22" s="46">
+        <v>0</v>
+      </c>
+      <c r="G22" s="45">
+        <v>0</v>
+      </c>
+      <c r="H22" s="45">
+        <v>0</v>
+      </c>
+      <c r="I22" s="46">
+        <v>0</v>
+      </c>
+      <c r="J22" s="46">
+        <v>0</v>
+      </c>
+      <c r="K22" s="46">
+        <v>0</v>
+      </c>
+      <c r="L22" s="46">
+        <v>0</v>
+      </c>
+      <c r="M22" s="46">
+        <v>0</v>
+      </c>
+      <c r="N22" s="46">
+        <v>0</v>
+      </c>
+      <c r="O22" s="46">
+        <v>0</v>
+      </c>
+      <c r="P22" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="46">
+        <v>0</v>
+      </c>
+      <c r="R22" s="46">
+        <v>0</v>
+      </c>
+      <c r="S22" s="46">
+        <v>0</v>
+      </c>
+      <c r="T22" s="46">
+        <v>0</v>
+      </c>
+      <c r="U22" s="46">
+        <v>0</v>
+      </c>
+      <c r="V22" s="46">
+        <v>0</v>
+      </c>
+      <c r="W22" s="46">
+        <v>1</v>
+      </c>
+      <c r="X22" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="46">
+        <v>0</v>
+      </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
@@ -2158,36 +3019,76 @@
       <c r="A23" s="28">
         <v>22</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="32">
         <v>2</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
+      <c r="F23" s="46">
+        <v>0</v>
+      </c>
+      <c r="G23" s="45">
+        <v>0</v>
+      </c>
+      <c r="H23" s="45">
+        <v>0</v>
+      </c>
+      <c r="I23" s="46">
+        <v>0</v>
+      </c>
+      <c r="J23" s="46">
+        <v>0</v>
+      </c>
+      <c r="K23" s="46">
+        <v>0</v>
+      </c>
+      <c r="L23" s="46">
+        <v>0</v>
+      </c>
+      <c r="M23" s="46">
+        <v>0</v>
+      </c>
+      <c r="N23" s="46">
+        <v>0</v>
+      </c>
+      <c r="O23" s="46">
+        <v>0</v>
+      </c>
+      <c r="P23" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="46">
+        <v>0</v>
+      </c>
+      <c r="R23" s="46">
+        <v>0</v>
+      </c>
+      <c r="S23" s="46">
+        <v>0</v>
+      </c>
+      <c r="T23" s="46">
+        <v>0</v>
+      </c>
+      <c r="U23" s="46">
+        <v>0</v>
+      </c>
+      <c r="V23" s="46">
+        <v>0</v>
+      </c>
+      <c r="W23" s="46">
+        <v>2</v>
+      </c>
+      <c r="X23" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="46">
+        <v>0</v>
+      </c>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
@@ -2199,36 +3100,76 @@
       <c r="A24" s="28">
         <v>23</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="32">
         <v>1</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
+      <c r="F24" s="46">
+        <v>0</v>
+      </c>
+      <c r="G24" s="45">
+        <v>0</v>
+      </c>
+      <c r="H24" s="45">
+        <v>0</v>
+      </c>
+      <c r="I24" s="46">
+        <v>0</v>
+      </c>
+      <c r="J24" s="46">
+        <v>0</v>
+      </c>
+      <c r="K24" s="46">
+        <v>0</v>
+      </c>
+      <c r="L24" s="46">
+        <v>0</v>
+      </c>
+      <c r="M24" s="46">
+        <v>0</v>
+      </c>
+      <c r="N24" s="46">
+        <v>0</v>
+      </c>
+      <c r="O24" s="46">
+        <v>0</v>
+      </c>
+      <c r="P24" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="46">
+        <v>0</v>
+      </c>
+      <c r="R24" s="46">
+        <v>0</v>
+      </c>
+      <c r="S24" s="46">
+        <v>0</v>
+      </c>
+      <c r="T24" s="46">
+        <v>0</v>
+      </c>
+      <c r="U24" s="46">
+        <v>0</v>
+      </c>
+      <c r="V24" s="46">
+        <v>0</v>
+      </c>
+      <c r="W24" s="46">
+        <v>1</v>
+      </c>
+      <c r="X24" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="46">
+        <v>0</v>
+      </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
@@ -2240,36 +3181,76 @@
       <c r="A25" s="28">
         <v>24</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="32">
         <v>1</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
+      <c r="F25" s="46">
+        <v>0</v>
+      </c>
+      <c r="G25" s="45">
+        <v>0</v>
+      </c>
+      <c r="H25" s="45">
+        <v>0</v>
+      </c>
+      <c r="I25" s="46">
+        <v>0</v>
+      </c>
+      <c r="J25" s="46">
+        <v>0</v>
+      </c>
+      <c r="K25" s="46">
+        <v>0</v>
+      </c>
+      <c r="L25" s="46">
+        <v>0</v>
+      </c>
+      <c r="M25" s="46">
+        <v>0</v>
+      </c>
+      <c r="N25" s="46">
+        <v>0</v>
+      </c>
+      <c r="O25" s="46">
+        <v>0</v>
+      </c>
+      <c r="P25" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="46">
+        <v>0</v>
+      </c>
+      <c r="R25" s="46">
+        <v>0</v>
+      </c>
+      <c r="S25" s="46">
+        <v>0</v>
+      </c>
+      <c r="T25" s="46">
+        <v>0</v>
+      </c>
+      <c r="U25" s="46">
+        <v>0</v>
+      </c>
+      <c r="V25" s="46">
+        <v>0</v>
+      </c>
+      <c r="W25" s="46">
+        <v>0</v>
+      </c>
+      <c r="X25" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="46">
+        <v>0</v>
+      </c>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
@@ -2281,36 +3262,76 @@
       <c r="A26" s="28">
         <v>25</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="32">
         <v>1</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
+      <c r="F26" s="46">
+        <v>0</v>
+      </c>
+      <c r="G26" s="45">
+        <v>0</v>
+      </c>
+      <c r="H26" s="45">
+        <v>0</v>
+      </c>
+      <c r="I26" s="46">
+        <v>0</v>
+      </c>
+      <c r="J26" s="46">
+        <v>0</v>
+      </c>
+      <c r="K26" s="46">
+        <v>0</v>
+      </c>
+      <c r="L26" s="46">
+        <v>0</v>
+      </c>
+      <c r="M26" s="46">
+        <v>0</v>
+      </c>
+      <c r="N26" s="46">
+        <v>0</v>
+      </c>
+      <c r="O26" s="46">
+        <v>0</v>
+      </c>
+      <c r="P26" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="46">
+        <v>0</v>
+      </c>
+      <c r="R26" s="46">
+        <v>0</v>
+      </c>
+      <c r="S26" s="46">
+        <v>0</v>
+      </c>
+      <c r="T26" s="46">
+        <v>0</v>
+      </c>
+      <c r="U26" s="46">
+        <v>0</v>
+      </c>
+      <c r="V26" s="46">
+        <v>0</v>
+      </c>
+      <c r="W26" s="46">
+        <v>0</v>
+      </c>
+      <c r="X26" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="46">
+        <v>0</v>
+      </c>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
@@ -2322,36 +3343,76 @@
       <c r="A27" s="28">
         <v>26</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="32">
         <v>1</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
+      <c r="F27" s="46">
+        <v>0</v>
+      </c>
+      <c r="G27" s="45">
+        <v>0</v>
+      </c>
+      <c r="H27" s="45">
+        <v>0</v>
+      </c>
+      <c r="I27" s="46">
+        <v>0</v>
+      </c>
+      <c r="J27" s="46">
+        <v>0</v>
+      </c>
+      <c r="K27" s="46">
+        <v>0</v>
+      </c>
+      <c r="L27" s="46">
+        <v>0</v>
+      </c>
+      <c r="M27" s="46">
+        <v>0</v>
+      </c>
+      <c r="N27" s="46">
+        <v>0</v>
+      </c>
+      <c r="O27" s="46">
+        <v>0</v>
+      </c>
+      <c r="P27" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="46">
+        <v>0</v>
+      </c>
+      <c r="R27" s="46">
+        <v>0</v>
+      </c>
+      <c r="S27" s="46">
+        <v>0</v>
+      </c>
+      <c r="T27" s="46">
+        <v>0</v>
+      </c>
+      <c r="U27" s="46">
+        <v>0</v>
+      </c>
+      <c r="V27" s="46">
+        <v>0</v>
+      </c>
+      <c r="W27" s="46">
+        <v>0</v>
+      </c>
+      <c r="X27" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="46">
+        <v>0</v>
+      </c>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
@@ -2363,36 +3424,76 @@
       <c r="A28" s="28">
         <v>27</v>
       </c>
-      <c r="B28" s="35"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="32">
         <v>1</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
+      <c r="F28" s="46">
+        <v>0</v>
+      </c>
+      <c r="G28" s="45">
+        <v>0</v>
+      </c>
+      <c r="H28" s="45">
+        <v>0</v>
+      </c>
+      <c r="I28" s="46">
+        <v>0</v>
+      </c>
+      <c r="J28" s="46">
+        <v>0</v>
+      </c>
+      <c r="K28" s="46">
+        <v>0</v>
+      </c>
+      <c r="L28" s="46">
+        <v>0</v>
+      </c>
+      <c r="M28" s="46">
+        <v>0</v>
+      </c>
+      <c r="N28" s="46">
+        <v>0</v>
+      </c>
+      <c r="O28" s="46">
+        <v>0</v>
+      </c>
+      <c r="P28" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="46">
+        <v>0</v>
+      </c>
+      <c r="R28" s="46">
+        <v>0</v>
+      </c>
+      <c r="S28" s="46">
+        <v>0</v>
+      </c>
+      <c r="T28" s="46">
+        <v>0</v>
+      </c>
+      <c r="U28" s="46">
+        <v>0</v>
+      </c>
+      <c r="V28" s="46">
+        <v>0</v>
+      </c>
+      <c r="W28" s="46">
+        <v>0</v>
+      </c>
+      <c r="X28" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="46">
+        <v>0</v>
+      </c>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
@@ -2411,29 +3512,69 @@
       <c r="D29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="32">
         <v>1</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
+      <c r="F29" s="46">
+        <v>0</v>
+      </c>
+      <c r="G29" s="45">
+        <v>0</v>
+      </c>
+      <c r="H29" s="45">
+        <v>0</v>
+      </c>
+      <c r="I29" s="46">
+        <v>0</v>
+      </c>
+      <c r="J29" s="46">
+        <v>0</v>
+      </c>
+      <c r="K29" s="46">
+        <v>0</v>
+      </c>
+      <c r="L29" s="46">
+        <v>0</v>
+      </c>
+      <c r="M29" s="46">
+        <v>0</v>
+      </c>
+      <c r="N29" s="46">
+        <v>0</v>
+      </c>
+      <c r="O29" s="46">
+        <v>0</v>
+      </c>
+      <c r="P29" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="46">
+        <v>0</v>
+      </c>
+      <c r="R29" s="46">
+        <v>0</v>
+      </c>
+      <c r="S29" s="46">
+        <v>0</v>
+      </c>
+      <c r="T29" s="46">
+        <v>0</v>
+      </c>
+      <c r="U29" s="46">
+        <v>0</v>
+      </c>
+      <c r="V29" s="46">
+        <v>0</v>
+      </c>
+      <c r="W29" s="46">
+        <v>0</v>
+      </c>
+      <c r="X29" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="46">
+        <v>1</v>
+      </c>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
@@ -2452,29 +3593,69 @@
       <c r="D30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="32">
         <v>1</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
+      <c r="F30" s="46">
+        <v>0</v>
+      </c>
+      <c r="G30" s="45">
+        <v>0</v>
+      </c>
+      <c r="H30" s="45">
+        <v>0</v>
+      </c>
+      <c r="I30" s="46">
+        <v>0</v>
+      </c>
+      <c r="J30" s="46">
+        <v>0</v>
+      </c>
+      <c r="K30" s="46">
+        <v>0</v>
+      </c>
+      <c r="L30" s="46">
+        <v>0</v>
+      </c>
+      <c r="M30" s="46">
+        <v>0</v>
+      </c>
+      <c r="N30" s="46">
+        <v>0</v>
+      </c>
+      <c r="O30" s="46">
+        <v>0</v>
+      </c>
+      <c r="P30" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="46">
+        <v>0</v>
+      </c>
+      <c r="R30" s="46">
+        <v>0</v>
+      </c>
+      <c r="S30" s="46">
+        <v>0</v>
+      </c>
+      <c r="T30" s="46">
+        <v>0</v>
+      </c>
+      <c r="U30" s="46">
+        <v>0</v>
+      </c>
+      <c r="V30" s="46">
+        <v>0</v>
+      </c>
+      <c r="W30" s="46">
+        <v>0</v>
+      </c>
+      <c r="X30" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="46">
+        <v>1</v>
+      </c>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
@@ -2493,29 +3674,69 @@
       <c r="D31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="32">
         <v>1</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
+      <c r="F31" s="46">
+        <v>0</v>
+      </c>
+      <c r="G31" s="45">
+        <v>0</v>
+      </c>
+      <c r="H31" s="45">
+        <v>0</v>
+      </c>
+      <c r="I31" s="46">
+        <v>0</v>
+      </c>
+      <c r="J31" s="46">
+        <v>0</v>
+      </c>
+      <c r="K31" s="46">
+        <v>0</v>
+      </c>
+      <c r="L31" s="46">
+        <v>0</v>
+      </c>
+      <c r="M31" s="46">
+        <v>0</v>
+      </c>
+      <c r="N31" s="46">
+        <v>0</v>
+      </c>
+      <c r="O31" s="46">
+        <v>0</v>
+      </c>
+      <c r="P31" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="46">
+        <v>0</v>
+      </c>
+      <c r="R31" s="46">
+        <v>0</v>
+      </c>
+      <c r="S31" s="46">
+        <v>0</v>
+      </c>
+      <c r="T31" s="46">
+        <v>0</v>
+      </c>
+      <c r="U31" s="46">
+        <v>0</v>
+      </c>
+      <c r="V31" s="46">
+        <v>0</v>
+      </c>
+      <c r="W31" s="46">
+        <v>0</v>
+      </c>
+      <c r="X31" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="46">
+        <v>1</v>
+      </c>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
@@ -2534,29 +3755,69 @@
       <c r="D32" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="32">
         <v>1</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
+      <c r="F32" s="46">
+        <v>0</v>
+      </c>
+      <c r="G32" s="45">
+        <v>0</v>
+      </c>
+      <c r="H32" s="45">
+        <v>0</v>
+      </c>
+      <c r="I32" s="46">
+        <v>0</v>
+      </c>
+      <c r="J32" s="46">
+        <v>0</v>
+      </c>
+      <c r="K32" s="46">
+        <v>0</v>
+      </c>
+      <c r="L32" s="46">
+        <v>0</v>
+      </c>
+      <c r="M32" s="46">
+        <v>0</v>
+      </c>
+      <c r="N32" s="46">
+        <v>0</v>
+      </c>
+      <c r="O32" s="46">
+        <v>0</v>
+      </c>
+      <c r="P32" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="46">
+        <v>0</v>
+      </c>
+      <c r="R32" s="46">
+        <v>0</v>
+      </c>
+      <c r="S32" s="46">
+        <v>0</v>
+      </c>
+      <c r="T32" s="46">
+        <v>0</v>
+      </c>
+      <c r="U32" s="46">
+        <v>0</v>
+      </c>
+      <c r="V32" s="46">
+        <v>0</v>
+      </c>
+      <c r="W32" s="46">
+        <v>0</v>
+      </c>
+      <c r="X32" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="46">
+        <v>1</v>
+      </c>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
@@ -2564,91 +3825,96 @@
       <c r="AD32" s="9"/>
       <c r="AE32" s="8"/>
     </row>
-    <row r="33" spans="1:31" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="3"/>
+      <c r="D33" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="3">
+        <f>SUM(E2:E32)</f>
+        <v>76</v>
+      </c>
       <c r="F33" s="2">
         <f t="shared" ref="F33:Y33" si="0">SUM(F2:F32)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
@@ -2656,12 +3922,6 @@
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
       <c r="AE33" s="8"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D38">
-        <f>SUM(E2:E32)</f>
-        <v>76</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2797,7 +4057,7 @@
       <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
@@ -2835,7 +4095,7 @@
       <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="14" t="s">
         <v>18</v>
       </c>
@@ -2871,7 +4131,7 @@
       <c r="A4" s="30">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -2909,7 +4169,7 @@
       <c r="A5" s="30">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="14" t="s">
         <v>30</v>
       </c>
@@ -2945,7 +4205,7 @@
       <c r="A6" s="30">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="14" t="s">
         <v>31</v>
       </c>
@@ -2981,7 +4241,7 @@
       <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="14" t="s">
         <v>32</v>
       </c>
@@ -3017,7 +4277,7 @@
       <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -3053,7 +4313,7 @@
       <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="14" t="s">
         <v>38</v>
       </c>
@@ -3087,7 +4347,7 @@
       <c r="A10" s="30">
         <v>9</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="14" t="s">
         <v>40</v>
       </c>
@@ -3121,7 +4381,7 @@
       <c r="A11" s="30">
         <v>10</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="14" t="s">
         <v>39</v>
       </c>
@@ -3155,7 +4415,7 @@
       <c r="A12" s="30">
         <v>11</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -3191,7 +4451,7 @@
       <c r="A13" s="30">
         <v>12</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="14" t="s">
         <v>41</v>
       </c>
@@ -3225,7 +4485,7 @@
       <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="20" t="s">
         <v>42</v>
       </c>
@@ -3259,7 +4519,7 @@
       <c r="A15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="34" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -3295,7 +4555,7 @@
       <c r="A16" s="30">
         <v>15</v>
       </c>
-      <c r="B16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="14" t="s">
         <v>44</v>
       </c>
@@ -3329,7 +4589,7 @@
       <c r="A17" s="30">
         <v>16</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="14" t="s">
         <v>19</v>
       </c>
@@ -3363,7 +4623,7 @@
       <c r="A18" s="30">
         <v>17</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="14" t="s">
         <v>20</v>
       </c>
@@ -3397,7 +4657,7 @@
       <c r="A19" s="30">
         <v>18</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -3433,7 +4693,7 @@
       <c r="A20" s="30">
         <v>19</v>
       </c>
-      <c r="B20" s="32"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="14" t="s">
         <v>21</v>
       </c>
@@ -3467,7 +4727,7 @@
       <c r="A21" s="30">
         <v>20</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="14" t="s">
         <v>21</v>
       </c>
@@ -3501,7 +4761,7 @@
       <c r="A22" s="30">
         <v>21</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="13" t="s">
         <v>8</v>
       </c>
@@ -3535,7 +4795,7 @@
       <c r="A23" s="30">
         <v>22</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
@@ -3569,7 +4829,7 @@
       <c r="A24" s="30">
         <v>23</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="4" t="s">
         <v>22</v>
       </c>
@@ -3603,7 +4863,7 @@
       <c r="A25" s="30">
         <v>24</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
@@ -3637,7 +4897,7 @@
       <c r="A26" s="30">
         <v>25</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="4" t="s">
         <v>24</v>
       </c>
@@ -3671,7 +4931,7 @@
       <c r="A27" s="30">
         <v>26</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="13" t="s">
         <v>25</v>
       </c>
@@ -3705,7 +4965,7 @@
       <c r="A28" s="30">
         <v>27</v>
       </c>
-      <c r="B28" s="35"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="13" t="s">
         <v>26</v>
       </c>
@@ -3874,8 +5134,8 @@
     <row r="33" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
         <v>14</v>

--- a/5.Print-Backlog/Sprint-1.xlsx
+++ b/5.Print-Backlog/Sprint-1.xlsx
@@ -203,7 +203,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +238,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -373,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -461,6 +473,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,10 +503,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -524,7 +548,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3797930710072498E-2"/>
+          <c:y val="4.1402253272821175E-2"/>
+          <c:w val="0.87669889311742011"/>
+          <c:h val="0.84689110585045568"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -620,6 +654,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -718,64 +812,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,11 +886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197334144"/>
-        <c:axId val="197335680"/>
+        <c:axId val="190391424"/>
+        <c:axId val="190392960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="197334144"/>
+        <c:axId val="190391424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,14 +900,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197335680"/>
+        <c:crossAx val="190392960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="197335680"/>
+        <c:axId val="190392960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,7 +918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197334144"/>
+        <c:crossAx val="190391424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1170,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E32"/>
+    <sheetView topLeftCell="E31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1382,7 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
@@ -1301,7 +1395,7 @@
       <c r="F2" s="25">
         <v>1</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="41">
         <v>0</v>
       </c>
       <c r="H2" s="26">
@@ -1369,7 +1463,7 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
@@ -1382,7 +1476,7 @@
       <c r="F3" s="25">
         <v>1</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="41">
         <v>0</v>
       </c>
       <c r="H3" s="26">
@@ -1450,7 +1544,7 @@
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -1465,7 +1559,7 @@
       <c r="F4" s="25">
         <v>2</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="42">
         <v>0</v>
       </c>
       <c r="H4" s="25">
@@ -1533,7 +1627,7 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="13" t="s">
         <v>30</v>
       </c>
@@ -1544,12 +1638,12 @@
         <v>2</v>
       </c>
       <c r="F5" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="25">
         <v>2</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="43">
         <v>0</v>
       </c>
       <c r="I5" s="27">
@@ -1614,7 +1708,7 @@
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="13" t="s">
         <v>31</v>
       </c>
@@ -1625,18 +1719,18 @@
         <v>1</v>
       </c>
       <c r="F6" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="25">
         <v>1</v>
       </c>
-      <c r="H6" s="27">
-        <v>0</v>
-      </c>
-      <c r="I6" s="27">
-        <v>0</v>
-      </c>
-      <c r="J6" s="27">
+      <c r="H6" s="43">
+        <v>0</v>
+      </c>
+      <c r="I6" s="43">
+        <v>0</v>
+      </c>
+      <c r="J6" s="43">
         <v>0</v>
       </c>
       <c r="K6" s="27">
@@ -1695,7 +1789,7 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
@@ -1706,18 +1800,18 @@
         <v>6</v>
       </c>
       <c r="F7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G7" s="25">
-        <v>1</v>
-      </c>
-      <c r="H7" s="27">
-        <v>4</v>
-      </c>
-      <c r="I7" s="28">
-        <v>1</v>
-      </c>
-      <c r="J7" s="28">
+        <v>6</v>
+      </c>
+      <c r="H7" s="25">
+        <v>5</v>
+      </c>
+      <c r="I7" s="25">
+        <v>1</v>
+      </c>
+      <c r="J7" s="44">
         <v>0</v>
       </c>
       <c r="K7" s="28">
@@ -1776,7 +1870,7 @@
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -1788,19 +1882,19 @@
       <c r="E8" s="22">
         <v>1</v>
       </c>
-      <c r="F8" s="25">
-        <v>0</v>
-      </c>
-      <c r="G8" s="25">
-        <v>0</v>
-      </c>
-      <c r="H8" s="25">
-        <v>0</v>
-      </c>
-      <c r="I8" s="28">
-        <v>1</v>
-      </c>
-      <c r="J8" s="28">
+      <c r="F8" s="31">
+        <v>1</v>
+      </c>
+      <c r="G8" s="31">
+        <v>1</v>
+      </c>
+      <c r="H8" s="31">
+        <v>1</v>
+      </c>
+      <c r="I8" s="25">
+        <v>1</v>
+      </c>
+      <c r="J8" s="44">
         <v>0</v>
       </c>
       <c r="K8" s="28">
@@ -1859,7 +1953,7 @@
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1869,19 +1963,19 @@
       <c r="E9" s="22">
         <v>2</v>
       </c>
-      <c r="F9" s="25">
-        <v>0</v>
-      </c>
-      <c r="G9" s="25">
-        <v>0</v>
-      </c>
-      <c r="H9" s="25">
-        <v>0</v>
+      <c r="F9" s="31">
+        <v>2</v>
+      </c>
+      <c r="G9" s="31">
+        <v>2</v>
+      </c>
+      <c r="H9" s="31">
+        <v>2</v>
       </c>
       <c r="I9" s="28">
         <v>2</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="43">
         <v>0</v>
       </c>
       <c r="K9" s="27">
@@ -1940,7 +2034,7 @@
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="13" t="s">
         <v>40</v>
       </c>
@@ -1950,22 +2044,22 @@
       <c r="E10" s="22">
         <v>1</v>
       </c>
-      <c r="F10" s="25">
-        <v>0</v>
-      </c>
-      <c r="G10" s="25">
-        <v>0</v>
-      </c>
-      <c r="H10" s="25">
-        <v>0</v>
-      </c>
-      <c r="I10" s="28">
-        <v>0</v>
-      </c>
-      <c r="J10" s="29">
-        <v>1</v>
-      </c>
-      <c r="K10" s="28">
+      <c r="F10" s="31">
+        <v>1</v>
+      </c>
+      <c r="G10" s="31">
+        <v>1</v>
+      </c>
+      <c r="H10" s="31">
+        <v>1</v>
+      </c>
+      <c r="I10" s="25">
+        <v>1</v>
+      </c>
+      <c r="J10" s="25">
+        <v>1</v>
+      </c>
+      <c r="K10" s="44">
         <v>0</v>
       </c>
       <c r="L10" s="28">
@@ -2021,7 +2115,7 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="13" t="s">
         <v>39</v>
       </c>
@@ -2031,22 +2125,22 @@
       <c r="E11" s="22">
         <v>2</v>
       </c>
-      <c r="F11" s="25">
-        <v>0</v>
-      </c>
-      <c r="G11" s="25">
-        <v>0</v>
-      </c>
-      <c r="H11" s="25">
-        <v>0</v>
-      </c>
-      <c r="I11" s="28">
-        <v>0</v>
+      <c r="F11" s="31">
+        <v>2</v>
+      </c>
+      <c r="G11" s="31">
+        <v>2</v>
+      </c>
+      <c r="H11" s="31">
+        <v>2</v>
+      </c>
+      <c r="I11" s="25">
+        <v>2</v>
       </c>
       <c r="J11" s="27">
         <v>2</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="44">
         <v>0</v>
       </c>
       <c r="L11" s="28">
@@ -2102,7 +2196,7 @@
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2114,31 +2208,31 @@
       <c r="E12" s="22">
         <v>2</v>
       </c>
-      <c r="F12" s="25">
-        <v>0</v>
-      </c>
-      <c r="G12" s="25">
-        <v>0</v>
-      </c>
-      <c r="H12" s="25">
-        <v>0</v>
+      <c r="F12" s="31">
+        <v>2</v>
+      </c>
+      <c r="G12" s="31">
+        <v>2</v>
+      </c>
+      <c r="H12" s="31">
+        <v>2</v>
       </c>
       <c r="I12" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="28">
         <v>1</v>
       </c>
-      <c r="L12" s="28">
-        <v>0</v>
-      </c>
-      <c r="M12" s="28">
-        <v>0</v>
-      </c>
-      <c r="N12" s="28">
+      <c r="L12" s="44">
+        <v>0</v>
+      </c>
+      <c r="M12" s="44">
+        <v>0</v>
+      </c>
+      <c r="N12" s="44">
         <v>0</v>
       </c>
       <c r="O12" s="28">
@@ -2185,7 +2279,7 @@
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="13" t="s">
         <v>41</v>
       </c>
@@ -2195,31 +2289,31 @@
       <c r="E13" s="22">
         <v>8</v>
       </c>
-      <c r="F13" s="28">
-        <v>0</v>
-      </c>
-      <c r="G13" s="28">
-        <v>0</v>
-      </c>
-      <c r="H13" s="28">
-        <v>0</v>
+      <c r="F13" s="31">
+        <v>8</v>
+      </c>
+      <c r="G13" s="31">
+        <v>8</v>
+      </c>
+      <c r="H13" s="31">
+        <v>8</v>
       </c>
       <c r="I13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K13" s="27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L13" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" s="28">
         <v>1</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="44">
         <v>0</v>
       </c>
       <c r="O13" s="28">
@@ -2266,7 +2360,7 @@
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="16" t="s">
         <v>42</v>
       </c>
@@ -2276,34 +2370,34 @@
       <c r="E14" s="22">
         <v>6</v>
       </c>
-      <c r="F14" s="28">
-        <v>0</v>
-      </c>
-      <c r="G14" s="27">
-        <v>0</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0</v>
+      <c r="F14" s="31">
+        <v>6</v>
+      </c>
+      <c r="G14" s="31">
+        <v>6</v>
+      </c>
+      <c r="H14" s="31">
+        <v>6</v>
       </c>
       <c r="I14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M14" s="28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N14" s="28">
         <v>3</v>
       </c>
-      <c r="O14" s="28">
+      <c r="O14" s="44">
         <v>0</v>
       </c>
       <c r="P14" s="28">
@@ -2347,7 +2441,7 @@
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="34" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -2359,37 +2453,37 @@
       <c r="E15" s="22">
         <v>3</v>
       </c>
-      <c r="F15" s="28">
-        <v>0</v>
-      </c>
-      <c r="G15" s="27">
-        <v>0</v>
-      </c>
-      <c r="H15" s="27">
-        <v>0</v>
+      <c r="F15" s="31">
+        <v>3</v>
+      </c>
+      <c r="G15" s="31">
+        <v>3</v>
+      </c>
+      <c r="H15" s="31">
+        <v>3</v>
       </c>
       <c r="I15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O15" s="28">
         <v>2</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="44">
         <v>0</v>
       </c>
       <c r="Q15" s="28">
@@ -2430,7 +2524,7 @@
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="13" t="s">
         <v>44</v>
       </c>
@@ -2440,40 +2534,40 @@
       <c r="E16" s="22">
         <v>4</v>
       </c>
-      <c r="F16" s="28">
-        <v>0</v>
-      </c>
-      <c r="G16" s="27">
-        <v>0</v>
-      </c>
-      <c r="H16" s="27">
-        <v>0</v>
-      </c>
-      <c r="I16" s="28">
-        <v>0</v>
-      </c>
-      <c r="J16" s="28">
-        <v>0</v>
-      </c>
-      <c r="K16" s="28">
-        <v>0</v>
+      <c r="F16" s="31">
+        <v>4</v>
+      </c>
+      <c r="G16" s="31">
+        <v>4</v>
+      </c>
+      <c r="H16" s="31">
+        <v>4</v>
+      </c>
+      <c r="I16" s="31">
+        <v>4</v>
+      </c>
+      <c r="J16" s="31">
+        <v>4</v>
+      </c>
+      <c r="K16" s="31">
+        <v>4</v>
       </c>
       <c r="L16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O16" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P16" s="28">
         <v>2</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="Q16" s="44">
         <v>0</v>
       </c>
       <c r="R16" s="28">
@@ -2511,7 +2605,7 @@
       <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="13" t="s">
         <v>19</v>
       </c>
@@ -2521,52 +2615,52 @@
       <c r="E17" s="22">
         <v>3</v>
       </c>
-      <c r="F17" s="28">
-        <v>0</v>
-      </c>
-      <c r="G17" s="27">
-        <v>0</v>
-      </c>
-      <c r="H17" s="27">
-        <v>0</v>
-      </c>
-      <c r="I17" s="28">
-        <v>0</v>
-      </c>
-      <c r="J17" s="28">
-        <v>0</v>
-      </c>
-      <c r="K17" s="28">
-        <v>0</v>
+      <c r="F17" s="31">
+        <v>3</v>
+      </c>
+      <c r="G17" s="31">
+        <v>3</v>
+      </c>
+      <c r="H17" s="31">
+        <v>3</v>
+      </c>
+      <c r="I17" s="31">
+        <v>3</v>
+      </c>
+      <c r="J17" s="31">
+        <v>3</v>
+      </c>
+      <c r="K17" s="31">
+        <v>3</v>
       </c>
       <c r="L17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P17" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="28">
         <v>1</v>
       </c>
-      <c r="R17" s="28">
-        <v>0</v>
-      </c>
-      <c r="S17" s="28">
-        <v>0</v>
-      </c>
-      <c r="T17" s="28">
-        <v>0</v>
-      </c>
-      <c r="U17" s="28">
+      <c r="R17" s="44">
+        <v>0</v>
+      </c>
+      <c r="S17" s="44">
+        <v>0</v>
+      </c>
+      <c r="T17" s="44">
+        <v>0</v>
+      </c>
+      <c r="U17" s="44">
         <v>0</v>
       </c>
       <c r="V17" s="28">
@@ -2592,7 +2686,7 @@
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
@@ -2602,53 +2696,53 @@
       <c r="E18" s="22">
         <v>15</v>
       </c>
-      <c r="F18" s="28">
-        <v>0</v>
-      </c>
-      <c r="G18" s="27">
-        <v>0</v>
-      </c>
-      <c r="H18" s="27">
-        <v>0</v>
-      </c>
-      <c r="I18" s="28">
-        <v>0</v>
-      </c>
-      <c r="J18" s="28">
-        <v>0</v>
-      </c>
-      <c r="K18" s="28">
-        <v>0</v>
+      <c r="F18" s="31">
+        <v>15</v>
+      </c>
+      <c r="G18" s="31">
+        <v>15</v>
+      </c>
+      <c r="H18" s="31">
+        <v>15</v>
+      </c>
+      <c r="I18" s="31">
+        <v>15</v>
+      </c>
+      <c r="J18" s="31">
+        <v>15</v>
+      </c>
+      <c r="K18" s="31">
+        <v>15</v>
       </c>
       <c r="L18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="28">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="R18" s="28">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="S18" s="28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T18" s="28">
         <v>4</v>
       </c>
-      <c r="U18" s="28">
-        <v>4</v>
+      <c r="U18" s="44">
+        <v>0</v>
       </c>
       <c r="V18" s="28">
         <v>0</v>
@@ -2673,7 +2767,7 @@
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -2685,56 +2779,56 @@
       <c r="E19" s="22">
         <v>1</v>
       </c>
-      <c r="F19" s="28">
-        <v>0</v>
-      </c>
-      <c r="G19" s="27">
-        <v>0</v>
-      </c>
-      <c r="H19" s="27">
-        <v>0</v>
-      </c>
-      <c r="I19" s="28">
-        <v>0</v>
-      </c>
-      <c r="J19" s="28">
-        <v>0</v>
-      </c>
-      <c r="K19" s="28">
-        <v>0</v>
-      </c>
-      <c r="L19" s="28">
-        <v>0</v>
-      </c>
-      <c r="M19" s="28">
-        <v>0</v>
-      </c>
-      <c r="N19" s="28">
-        <v>0</v>
-      </c>
-      <c r="O19" s="28">
-        <v>0</v>
-      </c>
-      <c r="P19" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="28">
-        <v>0</v>
-      </c>
-      <c r="R19" s="28">
-        <v>0</v>
-      </c>
-      <c r="S19" s="28">
-        <v>0</v>
-      </c>
-      <c r="T19" s="28">
-        <v>0</v>
+      <c r="F19" s="31">
+        <v>1</v>
+      </c>
+      <c r="G19" s="31">
+        <v>1</v>
+      </c>
+      <c r="H19" s="31">
+        <v>1</v>
+      </c>
+      <c r="I19" s="31">
+        <v>1</v>
+      </c>
+      <c r="J19" s="31">
+        <v>1</v>
+      </c>
+      <c r="K19" s="31">
+        <v>1</v>
+      </c>
+      <c r="L19" s="31">
+        <v>1</v>
+      </c>
+      <c r="M19" s="31">
+        <v>1</v>
+      </c>
+      <c r="N19" s="31">
+        <v>1</v>
+      </c>
+      <c r="O19" s="31">
+        <v>1</v>
+      </c>
+      <c r="P19" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="31">
+        <v>1</v>
+      </c>
+      <c r="R19" s="31">
+        <v>1</v>
+      </c>
+      <c r="S19" s="31">
+        <v>1</v>
+      </c>
+      <c r="T19" s="31">
+        <v>1</v>
       </c>
       <c r="U19" s="28">
-        <v>0</v>
-      </c>
-      <c r="V19" s="28">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="V19" s="44">
+        <v>0</v>
       </c>
       <c r="W19" s="28">
         <v>0</v>
@@ -2756,7 +2850,7 @@
       <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="13" t="s">
         <v>45</v>
       </c>
@@ -2766,56 +2860,56 @@
       <c r="E20" s="22">
         <v>2</v>
       </c>
-      <c r="F20" s="28">
-        <v>0</v>
-      </c>
-      <c r="G20" s="27">
-        <v>0</v>
-      </c>
-      <c r="H20" s="27">
-        <v>0</v>
-      </c>
-      <c r="I20" s="28">
-        <v>0</v>
-      </c>
-      <c r="J20" s="28">
-        <v>0</v>
-      </c>
-      <c r="K20" s="28">
-        <v>0</v>
-      </c>
-      <c r="L20" s="28">
-        <v>0</v>
-      </c>
-      <c r="M20" s="28">
-        <v>0</v>
-      </c>
-      <c r="N20" s="28">
-        <v>0</v>
-      </c>
-      <c r="O20" s="28">
-        <v>0</v>
-      </c>
-      <c r="P20" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="28">
-        <v>0</v>
-      </c>
-      <c r="R20" s="28">
-        <v>0</v>
-      </c>
-      <c r="S20" s="28">
-        <v>0</v>
-      </c>
-      <c r="T20" s="28">
-        <v>0</v>
+      <c r="F20" s="31">
+        <v>2</v>
+      </c>
+      <c r="G20" s="31">
+        <v>2</v>
+      </c>
+      <c r="H20" s="31">
+        <v>2</v>
+      </c>
+      <c r="I20" s="31">
+        <v>2</v>
+      </c>
+      <c r="J20" s="31">
+        <v>2</v>
+      </c>
+      <c r="K20" s="31">
+        <v>2</v>
+      </c>
+      <c r="L20" s="31">
+        <v>2</v>
+      </c>
+      <c r="M20" s="31">
+        <v>2</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
+      <c r="O20" s="31">
+        <v>2</v>
+      </c>
+      <c r="P20" s="31">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="31">
+        <v>2</v>
+      </c>
+      <c r="R20" s="31">
+        <v>2</v>
+      </c>
+      <c r="S20" s="31">
+        <v>2</v>
+      </c>
+      <c r="T20" s="31">
+        <v>2</v>
       </c>
       <c r="U20" s="28">
-        <v>0</v>
-      </c>
-      <c r="V20" s="28">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="V20" s="44">
+        <v>0</v>
       </c>
       <c r="W20" s="28">
         <v>0</v>
@@ -2837,7 +2931,7 @@
       <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="13" t="s">
         <v>21</v>
       </c>
@@ -2847,56 +2941,56 @@
       <c r="E21" s="22">
         <v>1</v>
       </c>
-      <c r="F21" s="28">
-        <v>0</v>
-      </c>
-      <c r="G21" s="27">
-        <v>0</v>
-      </c>
-      <c r="H21" s="27">
-        <v>0</v>
-      </c>
-      <c r="I21" s="28">
-        <v>0</v>
-      </c>
-      <c r="J21" s="28">
-        <v>0</v>
-      </c>
-      <c r="K21" s="28">
-        <v>0</v>
-      </c>
-      <c r="L21" s="28">
-        <v>0</v>
-      </c>
-      <c r="M21" s="28">
-        <v>0</v>
-      </c>
-      <c r="N21" s="28">
-        <v>0</v>
-      </c>
-      <c r="O21" s="28">
-        <v>0</v>
-      </c>
-      <c r="P21" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="28">
-        <v>0</v>
-      </c>
-      <c r="R21" s="28">
-        <v>0</v>
-      </c>
-      <c r="S21" s="28">
-        <v>0</v>
-      </c>
-      <c r="T21" s="28">
-        <v>0</v>
+      <c r="F21" s="31">
+        <v>1</v>
+      </c>
+      <c r="G21" s="31">
+        <v>1</v>
+      </c>
+      <c r="H21" s="31">
+        <v>1</v>
+      </c>
+      <c r="I21" s="31">
+        <v>1</v>
+      </c>
+      <c r="J21" s="31">
+        <v>1</v>
+      </c>
+      <c r="K21" s="31">
+        <v>1</v>
+      </c>
+      <c r="L21" s="31">
+        <v>1</v>
+      </c>
+      <c r="M21" s="31">
+        <v>1</v>
+      </c>
+      <c r="N21" s="31">
+        <v>1</v>
+      </c>
+      <c r="O21" s="31">
+        <v>1</v>
+      </c>
+      <c r="P21" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="31">
+        <v>1</v>
+      </c>
+      <c r="R21" s="31">
+        <v>1</v>
+      </c>
+      <c r="S21" s="31">
+        <v>1</v>
+      </c>
+      <c r="T21" s="31">
+        <v>1</v>
       </c>
       <c r="U21" s="28">
-        <v>0</v>
-      </c>
-      <c r="V21" s="28">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="V21" s="44">
+        <v>0</v>
       </c>
       <c r="W21" s="28">
         <v>0</v>
@@ -2918,7 +3012,7 @@
       <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="12" t="s">
         <v>8</v>
       </c>
@@ -2928,59 +3022,59 @@
       <c r="E22" s="22">
         <v>1</v>
       </c>
-      <c r="F22" s="28">
-        <v>0</v>
-      </c>
-      <c r="G22" s="27">
-        <v>0</v>
-      </c>
-      <c r="H22" s="27">
-        <v>0</v>
-      </c>
-      <c r="I22" s="28">
-        <v>0</v>
-      </c>
-      <c r="J22" s="28">
-        <v>0</v>
-      </c>
-      <c r="K22" s="28">
-        <v>0</v>
-      </c>
-      <c r="L22" s="28">
-        <v>0</v>
-      </c>
-      <c r="M22" s="28">
-        <v>0</v>
-      </c>
-      <c r="N22" s="28">
-        <v>0</v>
-      </c>
-      <c r="O22" s="28">
-        <v>0</v>
-      </c>
-      <c r="P22" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="28">
-        <v>0</v>
-      </c>
-      <c r="R22" s="28">
-        <v>0</v>
-      </c>
-      <c r="S22" s="28">
-        <v>0</v>
-      </c>
-      <c r="T22" s="28">
-        <v>0</v>
+      <c r="F22" s="31">
+        <v>1</v>
+      </c>
+      <c r="G22" s="31">
+        <v>1</v>
+      </c>
+      <c r="H22" s="31">
+        <v>1</v>
+      </c>
+      <c r="I22" s="31">
+        <v>1</v>
+      </c>
+      <c r="J22" s="31">
+        <v>1</v>
+      </c>
+      <c r="K22" s="31">
+        <v>1</v>
+      </c>
+      <c r="L22" s="31">
+        <v>1</v>
+      </c>
+      <c r="M22" s="31">
+        <v>1</v>
+      </c>
+      <c r="N22" s="31">
+        <v>1</v>
+      </c>
+      <c r="O22" s="31">
+        <v>1</v>
+      </c>
+      <c r="P22" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="31">
+        <v>1</v>
+      </c>
+      <c r="R22" s="31">
+        <v>1</v>
+      </c>
+      <c r="S22" s="31">
+        <v>1</v>
+      </c>
+      <c r="T22" s="31">
+        <v>1</v>
       </c>
       <c r="U22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="28">
-        <v>0</v>
-      </c>
-      <c r="W22" s="28">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="W22" s="44">
+        <v>0</v>
       </c>
       <c r="X22" s="28">
         <v>0</v>
@@ -2999,7 +3093,7 @@
       <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
@@ -3009,59 +3103,59 @@
       <c r="E23" s="22">
         <v>2</v>
       </c>
-      <c r="F23" s="28">
-        <v>0</v>
-      </c>
-      <c r="G23" s="27">
-        <v>0</v>
-      </c>
-      <c r="H23" s="27">
-        <v>0</v>
-      </c>
-      <c r="I23" s="28">
-        <v>0</v>
-      </c>
-      <c r="J23" s="28">
-        <v>0</v>
-      </c>
-      <c r="K23" s="28">
-        <v>0</v>
-      </c>
-      <c r="L23" s="28">
-        <v>0</v>
-      </c>
-      <c r="M23" s="28">
-        <v>0</v>
-      </c>
-      <c r="N23" s="28">
-        <v>0</v>
-      </c>
-      <c r="O23" s="28">
-        <v>0</v>
-      </c>
-      <c r="P23" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="28">
-        <v>0</v>
-      </c>
-      <c r="R23" s="28">
-        <v>0</v>
-      </c>
-      <c r="S23" s="28">
-        <v>0</v>
-      </c>
-      <c r="T23" s="28">
-        <v>0</v>
+      <c r="F23" s="31">
+        <v>2</v>
+      </c>
+      <c r="G23" s="31">
+        <v>2</v>
+      </c>
+      <c r="H23" s="31">
+        <v>2</v>
+      </c>
+      <c r="I23" s="31">
+        <v>2</v>
+      </c>
+      <c r="J23" s="31">
+        <v>2</v>
+      </c>
+      <c r="K23" s="31">
+        <v>2</v>
+      </c>
+      <c r="L23" s="31">
+        <v>2</v>
+      </c>
+      <c r="M23" s="31">
+        <v>2</v>
+      </c>
+      <c r="N23" s="31">
+        <v>2</v>
+      </c>
+      <c r="O23" s="31">
+        <v>2</v>
+      </c>
+      <c r="P23" s="31">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="31">
+        <v>2</v>
+      </c>
+      <c r="R23" s="31">
+        <v>2</v>
+      </c>
+      <c r="S23" s="31">
+        <v>2</v>
+      </c>
+      <c r="T23" s="31">
+        <v>2</v>
       </c>
       <c r="U23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V23" s="28">
-        <v>0</v>
-      </c>
-      <c r="W23" s="28">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="W23" s="44">
+        <v>0</v>
       </c>
       <c r="X23" s="28">
         <v>0</v>
@@ -3080,7 +3174,7 @@
       <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
@@ -3090,59 +3184,59 @@
       <c r="E24" s="22">
         <v>1</v>
       </c>
-      <c r="F24" s="28">
-        <v>0</v>
-      </c>
-      <c r="G24" s="27">
-        <v>0</v>
-      </c>
-      <c r="H24" s="27">
-        <v>0</v>
-      </c>
-      <c r="I24" s="28">
-        <v>0</v>
-      </c>
-      <c r="J24" s="28">
-        <v>0</v>
-      </c>
-      <c r="K24" s="28">
-        <v>0</v>
-      </c>
-      <c r="L24" s="28">
-        <v>0</v>
-      </c>
-      <c r="M24" s="28">
-        <v>0</v>
-      </c>
-      <c r="N24" s="28">
-        <v>0</v>
-      </c>
-      <c r="O24" s="28">
-        <v>0</v>
-      </c>
-      <c r="P24" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="28">
-        <v>0</v>
-      </c>
-      <c r="R24" s="28">
-        <v>0</v>
-      </c>
-      <c r="S24" s="28">
-        <v>0</v>
-      </c>
-      <c r="T24" s="28">
-        <v>0</v>
+      <c r="F24" s="31">
+        <v>1</v>
+      </c>
+      <c r="G24" s="31">
+        <v>1</v>
+      </c>
+      <c r="H24" s="31">
+        <v>1</v>
+      </c>
+      <c r="I24" s="31">
+        <v>1</v>
+      </c>
+      <c r="J24" s="31">
+        <v>1</v>
+      </c>
+      <c r="K24" s="31">
+        <v>1</v>
+      </c>
+      <c r="L24" s="31">
+        <v>1</v>
+      </c>
+      <c r="M24" s="31">
+        <v>1</v>
+      </c>
+      <c r="N24" s="31">
+        <v>1</v>
+      </c>
+      <c r="O24" s="31">
+        <v>1</v>
+      </c>
+      <c r="P24" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="31">
+        <v>1</v>
+      </c>
+      <c r="R24" s="31">
+        <v>1</v>
+      </c>
+      <c r="S24" s="31">
+        <v>1</v>
+      </c>
+      <c r="T24" s="31">
+        <v>1</v>
       </c>
       <c r="U24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="28">
-        <v>0</v>
-      </c>
-      <c r="W24" s="28">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="W24" s="44">
+        <v>0</v>
       </c>
       <c r="X24" s="28">
         <v>0</v>
@@ -3161,7 +3255,7 @@
       <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25" s="34"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
@@ -3171,62 +3265,62 @@
       <c r="E25" s="22">
         <v>1</v>
       </c>
-      <c r="F25" s="28">
-        <v>0</v>
-      </c>
-      <c r="G25" s="27">
-        <v>0</v>
-      </c>
-      <c r="H25" s="27">
-        <v>0</v>
-      </c>
-      <c r="I25" s="28">
-        <v>0</v>
-      </c>
-      <c r="J25" s="28">
-        <v>0</v>
-      </c>
-      <c r="K25" s="28">
-        <v>0</v>
-      </c>
-      <c r="L25" s="28">
-        <v>0</v>
-      </c>
-      <c r="M25" s="28">
-        <v>0</v>
-      </c>
-      <c r="N25" s="28">
-        <v>0</v>
-      </c>
-      <c r="O25" s="28">
-        <v>0</v>
-      </c>
-      <c r="P25" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="28">
-        <v>0</v>
-      </c>
-      <c r="R25" s="28">
-        <v>0</v>
-      </c>
-      <c r="S25" s="28">
-        <v>0</v>
-      </c>
-      <c r="T25" s="28">
-        <v>0</v>
+      <c r="F25" s="31">
+        <v>1</v>
+      </c>
+      <c r="G25" s="31">
+        <v>1</v>
+      </c>
+      <c r="H25" s="31">
+        <v>1</v>
+      </c>
+      <c r="I25" s="31">
+        <v>1</v>
+      </c>
+      <c r="J25" s="31">
+        <v>1</v>
+      </c>
+      <c r="K25" s="31">
+        <v>1</v>
+      </c>
+      <c r="L25" s="31">
+        <v>1</v>
+      </c>
+      <c r="M25" s="31">
+        <v>1</v>
+      </c>
+      <c r="N25" s="31">
+        <v>1</v>
+      </c>
+      <c r="O25" s="31">
+        <v>1</v>
+      </c>
+      <c r="P25" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="31">
+        <v>1</v>
+      </c>
+      <c r="R25" s="31">
+        <v>1</v>
+      </c>
+      <c r="S25" s="31">
+        <v>1</v>
+      </c>
+      <c r="T25" s="31">
+        <v>1</v>
       </c>
       <c r="U25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="28">
-        <v>0</v>
-      </c>
-      <c r="X25" s="28">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="X25" s="44">
+        <v>0</v>
       </c>
       <c r="Y25" s="28">
         <v>0</v>
@@ -3242,7 +3336,7 @@
       <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="3" t="s">
         <v>24</v>
       </c>
@@ -3252,62 +3346,62 @@
       <c r="E26" s="22">
         <v>1</v>
       </c>
-      <c r="F26" s="28">
-        <v>0</v>
-      </c>
-      <c r="G26" s="27">
-        <v>0</v>
-      </c>
-      <c r="H26" s="27">
-        <v>0</v>
-      </c>
-      <c r="I26" s="28">
-        <v>0</v>
-      </c>
-      <c r="J26" s="28">
-        <v>0</v>
-      </c>
-      <c r="K26" s="28">
-        <v>0</v>
-      </c>
-      <c r="L26" s="28">
-        <v>0</v>
-      </c>
-      <c r="M26" s="28">
-        <v>0</v>
-      </c>
-      <c r="N26" s="28">
-        <v>0</v>
-      </c>
-      <c r="O26" s="28">
-        <v>0</v>
-      </c>
-      <c r="P26" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="28">
-        <v>0</v>
-      </c>
-      <c r="R26" s="28">
-        <v>0</v>
-      </c>
-      <c r="S26" s="28">
-        <v>0</v>
-      </c>
-      <c r="T26" s="28">
-        <v>0</v>
+      <c r="F26" s="31">
+        <v>1</v>
+      </c>
+      <c r="G26" s="31">
+        <v>1</v>
+      </c>
+      <c r="H26" s="31">
+        <v>1</v>
+      </c>
+      <c r="I26" s="31">
+        <v>1</v>
+      </c>
+      <c r="J26" s="31">
+        <v>1</v>
+      </c>
+      <c r="K26" s="31">
+        <v>1</v>
+      </c>
+      <c r="L26" s="31">
+        <v>1</v>
+      </c>
+      <c r="M26" s="31">
+        <v>1</v>
+      </c>
+      <c r="N26" s="31">
+        <v>1</v>
+      </c>
+      <c r="O26" s="31">
+        <v>1</v>
+      </c>
+      <c r="P26" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="31">
+        <v>1</v>
+      </c>
+      <c r="R26" s="31">
+        <v>1</v>
+      </c>
+      <c r="S26" s="31">
+        <v>1</v>
+      </c>
+      <c r="T26" s="31">
+        <v>1</v>
       </c>
       <c r="U26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="28">
-        <v>0</v>
-      </c>
-      <c r="X26" s="28">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="X26" s="44">
+        <v>0</v>
       </c>
       <c r="Y26" s="28">
         <v>0</v>
@@ -3323,7 +3417,7 @@
       <c r="A27" s="18">
         <v>26</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="12" t="s">
         <v>25</v>
       </c>
@@ -3333,62 +3427,62 @@
       <c r="E27" s="22">
         <v>1</v>
       </c>
-      <c r="F27" s="28">
-        <v>0</v>
-      </c>
-      <c r="G27" s="27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="27">
-        <v>0</v>
-      </c>
-      <c r="I27" s="28">
-        <v>0</v>
-      </c>
-      <c r="J27" s="28">
-        <v>0</v>
-      </c>
-      <c r="K27" s="28">
-        <v>0</v>
-      </c>
-      <c r="L27" s="28">
-        <v>0</v>
-      </c>
-      <c r="M27" s="28">
-        <v>0</v>
-      </c>
-      <c r="N27" s="28">
-        <v>0</v>
-      </c>
-      <c r="O27" s="28">
-        <v>0</v>
-      </c>
-      <c r="P27" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="28">
-        <v>0</v>
-      </c>
-      <c r="R27" s="28">
-        <v>0</v>
-      </c>
-      <c r="S27" s="28">
-        <v>0</v>
-      </c>
-      <c r="T27" s="28">
-        <v>0</v>
+      <c r="F27" s="31">
+        <v>1</v>
+      </c>
+      <c r="G27" s="31">
+        <v>1</v>
+      </c>
+      <c r="H27" s="31">
+        <v>1</v>
+      </c>
+      <c r="I27" s="31">
+        <v>1</v>
+      </c>
+      <c r="J27" s="31">
+        <v>1</v>
+      </c>
+      <c r="K27" s="31">
+        <v>1</v>
+      </c>
+      <c r="L27" s="31">
+        <v>1</v>
+      </c>
+      <c r="M27" s="31">
+        <v>1</v>
+      </c>
+      <c r="N27" s="31">
+        <v>1</v>
+      </c>
+      <c r="O27" s="31">
+        <v>1</v>
+      </c>
+      <c r="P27" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="31">
+        <v>1</v>
+      </c>
+      <c r="R27" s="31">
+        <v>1</v>
+      </c>
+      <c r="S27" s="31">
+        <v>1</v>
+      </c>
+      <c r="T27" s="31">
+        <v>1</v>
       </c>
       <c r="U27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="28">
-        <v>0</v>
-      </c>
-      <c r="X27" s="28">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="X27" s="44">
+        <v>0</v>
       </c>
       <c r="Y27" s="28">
         <v>0</v>
@@ -3404,7 +3498,7 @@
       <c r="A28" s="18">
         <v>27</v>
       </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="12" t="s">
         <v>26</v>
       </c>
@@ -3414,62 +3508,62 @@
       <c r="E28" s="22">
         <v>1</v>
       </c>
-      <c r="F28" s="28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="27">
-        <v>0</v>
-      </c>
-      <c r="H28" s="27">
-        <v>0</v>
-      </c>
-      <c r="I28" s="28">
-        <v>0</v>
-      </c>
-      <c r="J28" s="28">
-        <v>0</v>
-      </c>
-      <c r="K28" s="28">
-        <v>0</v>
-      </c>
-      <c r="L28" s="28">
-        <v>0</v>
-      </c>
-      <c r="M28" s="28">
-        <v>0</v>
-      </c>
-      <c r="N28" s="28">
-        <v>0</v>
-      </c>
-      <c r="O28" s="28">
-        <v>0</v>
-      </c>
-      <c r="P28" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="28">
-        <v>0</v>
-      </c>
-      <c r="R28" s="28">
-        <v>0</v>
-      </c>
-      <c r="S28" s="28">
-        <v>0</v>
-      </c>
-      <c r="T28" s="28">
-        <v>0</v>
+      <c r="F28" s="31">
+        <v>1</v>
+      </c>
+      <c r="G28" s="31">
+        <v>1</v>
+      </c>
+      <c r="H28" s="31">
+        <v>1</v>
+      </c>
+      <c r="I28" s="31">
+        <v>1</v>
+      </c>
+      <c r="J28" s="31">
+        <v>1</v>
+      </c>
+      <c r="K28" s="31">
+        <v>1</v>
+      </c>
+      <c r="L28" s="31">
+        <v>1</v>
+      </c>
+      <c r="M28" s="31">
+        <v>1</v>
+      </c>
+      <c r="N28" s="31">
+        <v>1</v>
+      </c>
+      <c r="O28" s="31">
+        <v>1</v>
+      </c>
+      <c r="P28" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="31">
+        <v>1</v>
+      </c>
+      <c r="R28" s="31">
+        <v>1</v>
+      </c>
+      <c r="S28" s="31">
+        <v>1</v>
+      </c>
+      <c r="T28" s="31">
+        <v>1</v>
       </c>
       <c r="U28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="28">
-        <v>0</v>
-      </c>
-      <c r="X28" s="28">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="X28" s="44">
+        <v>0</v>
       </c>
       <c r="Y28" s="28">
         <v>0</v>
@@ -3495,65 +3589,65 @@
       <c r="E29" s="22">
         <v>1</v>
       </c>
-      <c r="F29" s="28">
-        <v>0</v>
-      </c>
-      <c r="G29" s="27">
-        <v>0</v>
-      </c>
-      <c r="H29" s="27">
-        <v>0</v>
-      </c>
-      <c r="I29" s="28">
-        <v>0</v>
-      </c>
-      <c r="J29" s="28">
-        <v>0</v>
-      </c>
-      <c r="K29" s="28">
-        <v>0</v>
-      </c>
-      <c r="L29" s="28">
-        <v>0</v>
-      </c>
-      <c r="M29" s="28">
-        <v>0</v>
-      </c>
-      <c r="N29" s="28">
-        <v>0</v>
-      </c>
-      <c r="O29" s="28">
-        <v>0</v>
-      </c>
-      <c r="P29" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="28">
-        <v>0</v>
-      </c>
-      <c r="R29" s="28">
-        <v>0</v>
-      </c>
-      <c r="S29" s="28">
-        <v>0</v>
-      </c>
-      <c r="T29" s="28">
-        <v>0</v>
+      <c r="F29" s="31">
+        <v>1</v>
+      </c>
+      <c r="G29" s="31">
+        <v>1</v>
+      </c>
+      <c r="H29" s="31">
+        <v>1</v>
+      </c>
+      <c r="I29" s="31">
+        <v>1</v>
+      </c>
+      <c r="J29" s="31">
+        <v>1</v>
+      </c>
+      <c r="K29" s="31">
+        <v>1</v>
+      </c>
+      <c r="L29" s="31">
+        <v>1</v>
+      </c>
+      <c r="M29" s="31">
+        <v>1</v>
+      </c>
+      <c r="N29" s="31">
+        <v>1</v>
+      </c>
+      <c r="O29" s="31">
+        <v>1</v>
+      </c>
+      <c r="P29" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="31">
+        <v>1</v>
+      </c>
+      <c r="R29" s="31">
+        <v>1</v>
+      </c>
+      <c r="S29" s="31">
+        <v>1</v>
+      </c>
+      <c r="T29" s="31">
+        <v>1</v>
       </c>
       <c r="U29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="28">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y29" s="44">
+        <v>0</v>
       </c>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
@@ -3576,65 +3670,65 @@
       <c r="E30" s="22">
         <v>1</v>
       </c>
-      <c r="F30" s="28">
-        <v>0</v>
-      </c>
-      <c r="G30" s="27">
-        <v>0</v>
-      </c>
-      <c r="H30" s="27">
-        <v>0</v>
-      </c>
-      <c r="I30" s="28">
-        <v>0</v>
-      </c>
-      <c r="J30" s="28">
-        <v>0</v>
-      </c>
-      <c r="K30" s="28">
-        <v>0</v>
-      </c>
-      <c r="L30" s="28">
-        <v>0</v>
-      </c>
-      <c r="M30" s="28">
-        <v>0</v>
-      </c>
-      <c r="N30" s="28">
-        <v>0</v>
-      </c>
-      <c r="O30" s="28">
-        <v>0</v>
-      </c>
-      <c r="P30" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="28">
-        <v>0</v>
-      </c>
-      <c r="R30" s="28">
-        <v>0</v>
-      </c>
-      <c r="S30" s="28">
-        <v>0</v>
-      </c>
-      <c r="T30" s="28">
-        <v>0</v>
+      <c r="F30" s="31">
+        <v>1</v>
+      </c>
+      <c r="G30" s="31">
+        <v>1</v>
+      </c>
+      <c r="H30" s="31">
+        <v>1</v>
+      </c>
+      <c r="I30" s="31">
+        <v>1</v>
+      </c>
+      <c r="J30" s="31">
+        <v>1</v>
+      </c>
+      <c r="K30" s="31">
+        <v>1</v>
+      </c>
+      <c r="L30" s="31">
+        <v>1</v>
+      </c>
+      <c r="M30" s="31">
+        <v>1</v>
+      </c>
+      <c r="N30" s="31">
+        <v>1</v>
+      </c>
+      <c r="O30" s="31">
+        <v>1</v>
+      </c>
+      <c r="P30" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="31">
+        <v>1</v>
+      </c>
+      <c r="R30" s="31">
+        <v>1</v>
+      </c>
+      <c r="S30" s="31">
+        <v>1</v>
+      </c>
+      <c r="T30" s="31">
+        <v>1</v>
       </c>
       <c r="U30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="28">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y30" s="44">
+        <v>0</v>
       </c>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -3657,65 +3751,65 @@
       <c r="E31" s="22">
         <v>1</v>
       </c>
-      <c r="F31" s="28">
-        <v>0</v>
-      </c>
-      <c r="G31" s="27">
-        <v>0</v>
-      </c>
-      <c r="H31" s="27">
-        <v>0</v>
-      </c>
-      <c r="I31" s="28">
-        <v>0</v>
-      </c>
-      <c r="J31" s="28">
-        <v>0</v>
-      </c>
-      <c r="K31" s="28">
-        <v>0</v>
-      </c>
-      <c r="L31" s="28">
-        <v>0</v>
-      </c>
-      <c r="M31" s="28">
-        <v>0</v>
-      </c>
-      <c r="N31" s="28">
-        <v>0</v>
-      </c>
-      <c r="O31" s="28">
-        <v>0</v>
-      </c>
-      <c r="P31" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="28">
-        <v>0</v>
-      </c>
-      <c r="R31" s="28">
-        <v>0</v>
-      </c>
-      <c r="S31" s="28">
-        <v>0</v>
-      </c>
-      <c r="T31" s="28">
-        <v>0</v>
+      <c r="F31" s="31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="31">
+        <v>1</v>
+      </c>
+      <c r="H31" s="31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="31">
+        <v>1</v>
+      </c>
+      <c r="J31" s="31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="31">
+        <v>1</v>
+      </c>
+      <c r="M31" s="31">
+        <v>1</v>
+      </c>
+      <c r="N31" s="31">
+        <v>1</v>
+      </c>
+      <c r="O31" s="31">
+        <v>1</v>
+      </c>
+      <c r="P31" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="31">
+        <v>1</v>
+      </c>
+      <c r="R31" s="31">
+        <v>1</v>
+      </c>
+      <c r="S31" s="31">
+        <v>1</v>
+      </c>
+      <c r="T31" s="31">
+        <v>1</v>
       </c>
       <c r="U31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="28">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y31" s="44">
+        <v>0</v>
       </c>
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
@@ -3738,65 +3832,65 @@
       <c r="E32" s="22">
         <v>1</v>
       </c>
-      <c r="F32" s="28">
-        <v>0</v>
-      </c>
-      <c r="G32" s="27">
-        <v>0</v>
-      </c>
-      <c r="H32" s="27">
-        <v>0</v>
-      </c>
-      <c r="I32" s="28">
-        <v>0</v>
-      </c>
-      <c r="J32" s="28">
-        <v>0</v>
-      </c>
-      <c r="K32" s="28">
-        <v>0</v>
-      </c>
-      <c r="L32" s="28">
-        <v>0</v>
-      </c>
-      <c r="M32" s="28">
-        <v>0</v>
-      </c>
-      <c r="N32" s="28">
-        <v>0</v>
-      </c>
-      <c r="O32" s="28">
-        <v>0</v>
-      </c>
-      <c r="P32" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="28">
-        <v>0</v>
-      </c>
-      <c r="R32" s="28">
-        <v>0</v>
-      </c>
-      <c r="S32" s="28">
-        <v>0</v>
-      </c>
-      <c r="T32" s="28">
-        <v>0</v>
+      <c r="F32" s="31">
+        <v>1</v>
+      </c>
+      <c r="G32" s="31">
+        <v>1</v>
+      </c>
+      <c r="H32" s="31">
+        <v>1</v>
+      </c>
+      <c r="I32" s="31">
+        <v>1</v>
+      </c>
+      <c r="J32" s="31">
+        <v>1</v>
+      </c>
+      <c r="K32" s="31">
+        <v>1</v>
+      </c>
+      <c r="L32" s="31">
+        <v>1</v>
+      </c>
+      <c r="M32" s="31">
+        <v>1</v>
+      </c>
+      <c r="N32" s="31">
+        <v>1</v>
+      </c>
+      <c r="O32" s="31">
+        <v>1</v>
+      </c>
+      <c r="P32" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="31">
+        <v>1</v>
+      </c>
+      <c r="R32" s="31">
+        <v>1</v>
+      </c>
+      <c r="S32" s="31">
+        <v>1</v>
+      </c>
+      <c r="T32" s="31">
+        <v>1</v>
       </c>
       <c r="U32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="28">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y32" s="44">
+        <v>0</v>
       </c>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
@@ -3817,76 +3911,76 @@
         <v>76</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" ref="F33:Y33" si="0">SUM(F2:F32)</f>
-        <v>4</v>
+        <f>SUM(F2:F32)</f>
+        <v>76</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="F33:Y33" si="0">SUM(G2:G32)</f>
+        <v>72</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="O33" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="P33" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="R33" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="S33" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="U33" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="V33" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="W33" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X33" s="1">
         <f t="shared" si="0"/>
@@ -3894,7 +3988,7 @@
       </c>
       <c r="Y33" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
@@ -3922,8 +4016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:W11"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4037,7 +4131,7 @@
       <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
@@ -4115,7 +4209,7 @@
       <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
@@ -4193,7 +4287,7 @@
       <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -4273,7 +4367,7 @@
       <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="13" t="s">
         <v>30</v>
       </c>
@@ -4351,7 +4445,7 @@
       <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="13" t="s">
         <v>31</v>
       </c>
@@ -4429,7 +4523,7 @@
       <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
@@ -4440,75 +4534,74 @@
         <v>6</v>
       </c>
       <c r="F7" s="24">
-        <f t="shared" ref="F3:F32" si="0">SUM(G7:Z7)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z7" s="25">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -4588,7 +4681,7 @@
       <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
@@ -4666,7 +4759,7 @@
       <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="13" t="s">
         <v>40</v>
       </c>
@@ -4744,7 +4837,7 @@
       <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="13" t="s">
         <v>39</v>
       </c>
@@ -4757,55 +4850,55 @@
       <c r="F11" s="24">
         <v>2</v>
       </c>
-      <c r="G11" s="40">
-        <v>2</v>
-      </c>
-      <c r="H11" s="40">
-        <v>2</v>
-      </c>
-      <c r="I11" s="40">
-        <v>2</v>
-      </c>
-      <c r="J11" s="40">
-        <v>2</v>
-      </c>
-      <c r="K11" s="40">
-        <v>2</v>
-      </c>
-      <c r="L11" s="40">
-        <v>2</v>
-      </c>
-      <c r="M11" s="40">
-        <v>2</v>
-      </c>
-      <c r="N11" s="40">
-        <v>2</v>
-      </c>
-      <c r="O11" s="40">
-        <v>2</v>
-      </c>
-      <c r="P11" s="40">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="40">
-        <v>2</v>
-      </c>
-      <c r="R11" s="40">
-        <v>2</v>
-      </c>
-      <c r="S11" s="40">
-        <v>2</v>
-      </c>
-      <c r="T11" s="40">
-        <v>2</v>
-      </c>
-      <c r="U11" s="40">
-        <v>2</v>
-      </c>
-      <c r="V11" s="40">
-        <v>2</v>
-      </c>
-      <c r="W11" s="40">
+      <c r="G11" s="32">
+        <v>2</v>
+      </c>
+      <c r="H11" s="32">
+        <v>2</v>
+      </c>
+      <c r="I11" s="32">
+        <v>2</v>
+      </c>
+      <c r="J11" s="32">
+        <v>2</v>
+      </c>
+      <c r="K11" s="32">
+        <v>2</v>
+      </c>
+      <c r="L11" s="32">
+        <v>2</v>
+      </c>
+      <c r="M11" s="32">
+        <v>2</v>
+      </c>
+      <c r="N11" s="32">
+        <v>2</v>
+      </c>
+      <c r="O11" s="32">
+        <v>2</v>
+      </c>
+      <c r="P11" s="32">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="32">
+        <v>2</v>
+      </c>
+      <c r="R11" s="32">
+        <v>2</v>
+      </c>
+      <c r="S11" s="32">
+        <v>2</v>
+      </c>
+      <c r="T11" s="32">
+        <v>2</v>
+      </c>
+      <c r="U11" s="32">
+        <v>2</v>
+      </c>
+      <c r="V11" s="32">
+        <v>2</v>
+      </c>
+      <c r="W11" s="32">
         <v>2</v>
       </c>
       <c r="X11" s="25">
@@ -4822,7 +4915,7 @@
       <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -4835,75 +4928,74 @@
         <v>2</v>
       </c>
       <c r="F12" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z12" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="13" t="s">
         <v>41</v>
       </c>
@@ -4914,75 +5006,74 @@
         <v>8</v>
       </c>
       <c r="F13" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z13" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="16" t="s">
         <v>42</v>
       </c>
@@ -4993,75 +5084,74 @@
         <v>6</v>
       </c>
       <c r="F14" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="34" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -5074,75 +5164,74 @@
         <v>3</v>
       </c>
       <c r="F15" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="13" t="s">
         <v>44</v>
       </c>
@@ -5153,75 +5242,74 @@
         <v>4</v>
       </c>
       <c r="F16" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z16" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>16</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="13" t="s">
         <v>19</v>
       </c>
@@ -5232,75 +5320,74 @@
         <v>3</v>
       </c>
       <c r="F17" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z17" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>17</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
@@ -5311,75 +5398,74 @@
         <v>15</v>
       </c>
       <c r="F18" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z18" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>18</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -5392,75 +5478,74 @@
         <v>1</v>
       </c>
       <c r="F19" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>19</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="13" t="s">
         <v>21</v>
       </c>
@@ -5471,75 +5556,74 @@
         <v>2</v>
       </c>
       <c r="F20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>20</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="13" t="s">
         <v>21</v>
       </c>
@@ -5550,75 +5634,74 @@
         <v>1</v>
       </c>
       <c r="F21" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>21</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="12" t="s">
         <v>8</v>
       </c>
@@ -5629,75 +5712,74 @@
         <v>1</v>
       </c>
       <c r="F22" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>22</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
@@ -5708,75 +5790,74 @@
         <v>2</v>
       </c>
       <c r="F23" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z23" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>23</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
@@ -5787,75 +5868,74 @@
         <v>1</v>
       </c>
       <c r="F24" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>24</v>
       </c>
-      <c r="B25" s="34"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
@@ -5866,75 +5946,74 @@
         <v>1</v>
       </c>
       <c r="F25" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>25</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="3" t="s">
         <v>24</v>
       </c>
@@ -5945,75 +6024,74 @@
         <v>1</v>
       </c>
       <c r="F26" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>26</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="12" t="s">
         <v>25</v>
       </c>
@@ -6024,75 +6102,74 @@
         <v>1</v>
       </c>
       <c r="F27" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>27</v>
       </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="12" t="s">
         <v>26</v>
       </c>
@@ -6103,68 +6180,67 @@
         <v>1</v>
       </c>
       <c r="F28" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -6182,68 +6258,67 @@
         <v>1</v>
       </c>
       <c r="F29" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6261,68 +6336,67 @@
         <v>1</v>
       </c>
       <c r="F30" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6340,68 +6414,67 @@
         <v>1</v>
       </c>
       <c r="F31" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6419,99 +6492,138 @@
         <v>1</v>
       </c>
       <c r="F32" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
+      <c r="G33" s="28">
+        <v>76</v>
+      </c>
+      <c r="H33" s="28">
+        <v>72</v>
+      </c>
+      <c r="I33" s="28">
+        <v>68</v>
+      </c>
+      <c r="J33" s="28">
+        <v>64</v>
+      </c>
+      <c r="K33" s="28">
+        <v>60</v>
+      </c>
+      <c r="L33" s="28">
+        <v>56</v>
+      </c>
+      <c r="M33" s="28">
+        <v>52</v>
+      </c>
+      <c r="N33" s="28">
+        <v>48</v>
+      </c>
+      <c r="O33" s="28">
+        <v>44</v>
+      </c>
+      <c r="P33" s="28">
+        <v>40</v>
+      </c>
+      <c r="Q33" s="28">
+        <v>36</v>
+      </c>
+      <c r="R33" s="28">
+        <v>32</v>
+      </c>
+      <c r="S33" s="28">
+        <v>28</v>
+      </c>
+      <c r="T33" s="28">
+        <v>24</v>
+      </c>
+      <c r="U33" s="28">
+        <v>20</v>
+      </c>
+      <c r="V33" s="28">
+        <v>16</v>
+      </c>
+      <c r="W33" s="28">
+        <v>12</v>
+      </c>
+      <c r="X33" s="28">
+        <v>8</v>
+      </c>
+      <c r="Y33" s="28">
+        <v>4</v>
+      </c>
+      <c r="Z33" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
@@ -6522,85 +6634,85 @@
       <c r="F34" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="31">
         <f>SUM(G2:G32)</f>
-        <v>13</v>
-      </c>
-      <c r="H34" s="39">
-        <f t="shared" ref="H34:Z34" si="1">SUM(H2:H32)</f>
-        <v>13</v>
-      </c>
-      <c r="I34" s="39">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="J34" s="39">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="K34" s="39">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="L34" s="39">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="M34" s="39">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="N34" s="39">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="O34" s="39">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="P34" s="39">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="Q34" s="39">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="R34" s="39">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="S34" s="39">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="T34" s="39">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="U34" s="39">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="V34" s="39">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="W34" s="39">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="X34" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="H34" s="31">
+        <f t="shared" ref="H34:Z34" si="0">SUM(H2:H32)</f>
+        <v>76</v>
+      </c>
+      <c r="I34" s="31">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="J34" s="31">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="K34" s="31">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="L34" s="31">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="M34" s="31">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="N34" s="31">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="O34" s="31">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="P34" s="31">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="Q34" s="31">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="R34" s="31">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="S34" s="31">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="T34" s="31">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="U34" s="31">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="V34" s="31">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="W34" s="31">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="X34" s="31">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="Y34" s="31">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="Z34" s="31">
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/5.Print-Backlog/Sprint-1.xlsx
+++ b/5.Print-Backlog/Sprint-1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\caps1\5.Print-Backlog\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Actual" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -177,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
@@ -479,6 +484,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,18 +520,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +538,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -718,6 +723,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2AF8-4A23-9267-01C3C33CDA35}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -815,66 +825,71 @@
                   <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>76</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>76</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>71</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>71</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>71</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>63</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>63</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2AF8-4A23-9267-01C3C33CDA35}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -884,7 +899,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="190391424"/>
         <c:axId val="190392960"/>
@@ -1018,7 +1032,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1053,7 +1067,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1264,7 +1278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView topLeftCell="E31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
@@ -1382,7 +1396,7 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
@@ -1395,7 +1409,7 @@
       <c r="F2" s="25">
         <v>1</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="33">
         <v>0</v>
       </c>
       <c r="H2" s="26">
@@ -1463,7 +1477,7 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
@@ -1476,7 +1490,7 @@
       <c r="F3" s="25">
         <v>1</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="33">
         <v>0</v>
       </c>
       <c r="H3" s="26">
@@ -1544,7 +1558,7 @@
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -1559,7 +1573,7 @@
       <c r="F4" s="25">
         <v>2</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="34">
         <v>0</v>
       </c>
       <c r="H4" s="25">
@@ -1627,7 +1641,7 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="13" t="s">
         <v>30</v>
       </c>
@@ -1643,7 +1657,7 @@
       <c r="G5" s="25">
         <v>2</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="35">
         <v>0</v>
       </c>
       <c r="I5" s="27">
@@ -1708,7 +1722,7 @@
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="13" t="s">
         <v>31</v>
       </c>
@@ -1724,13 +1738,13 @@
       <c r="G6" s="25">
         <v>1</v>
       </c>
-      <c r="H6" s="43">
-        <v>0</v>
-      </c>
-      <c r="I6" s="43">
-        <v>0</v>
-      </c>
-      <c r="J6" s="43">
+      <c r="H6" s="35">
+        <v>0</v>
+      </c>
+      <c r="I6" s="35">
+        <v>0</v>
+      </c>
+      <c r="J6" s="35">
         <v>0</v>
       </c>
       <c r="K6" s="27">
@@ -1789,7 +1803,7 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
@@ -1811,7 +1825,7 @@
       <c r="I7" s="25">
         <v>1</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="36">
         <v>0</v>
       </c>
       <c r="K7" s="28">
@@ -1870,7 +1884,7 @@
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="41" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -1894,7 +1908,7 @@
       <c r="I8" s="25">
         <v>1</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="36">
         <v>0</v>
       </c>
       <c r="K8" s="28">
@@ -1953,7 +1967,7 @@
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1975,7 +1989,7 @@
       <c r="I9" s="28">
         <v>2</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="35">
         <v>0</v>
       </c>
       <c r="K9" s="27">
@@ -2034,7 +2048,7 @@
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="13" t="s">
         <v>40</v>
       </c>
@@ -2059,7 +2073,7 @@
       <c r="J10" s="25">
         <v>1</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="36">
         <v>0</v>
       </c>
       <c r="L10" s="28">
@@ -2115,7 +2129,7 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="13" t="s">
         <v>39</v>
       </c>
@@ -2140,7 +2154,7 @@
       <c r="J11" s="27">
         <v>2</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="36">
         <v>0</v>
       </c>
       <c r="L11" s="28">
@@ -2196,7 +2210,7 @@
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2226,13 +2240,13 @@
       <c r="K12" s="28">
         <v>1</v>
       </c>
-      <c r="L12" s="44">
-        <v>0</v>
-      </c>
-      <c r="M12" s="44">
-        <v>0</v>
-      </c>
-      <c r="N12" s="44">
+      <c r="L12" s="36">
+        <v>0</v>
+      </c>
+      <c r="M12" s="36">
+        <v>0</v>
+      </c>
+      <c r="N12" s="36">
         <v>0</v>
       </c>
       <c r="O12" s="28">
@@ -2279,7 +2293,7 @@
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="13" t="s">
         <v>41</v>
       </c>
@@ -2313,7 +2327,7 @@
       <c r="M13" s="28">
         <v>1</v>
       </c>
-      <c r="N13" s="44">
+      <c r="N13" s="36">
         <v>0</v>
       </c>
       <c r="O13" s="28">
@@ -2360,7 +2374,7 @@
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="36"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="16" t="s">
         <v>42</v>
       </c>
@@ -2397,7 +2411,7 @@
       <c r="N14" s="28">
         <v>3</v>
       </c>
-      <c r="O14" s="44">
+      <c r="O14" s="36">
         <v>0</v>
       </c>
       <c r="P14" s="28">
@@ -2441,7 +2455,7 @@
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="38" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -2483,7 +2497,7 @@
       <c r="O15" s="28">
         <v>2</v>
       </c>
-      <c r="P15" s="44">
+      <c r="P15" s="36">
         <v>0</v>
       </c>
       <c r="Q15" s="28">
@@ -2524,7 +2538,7 @@
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="13" t="s">
         <v>44</v>
       </c>
@@ -2567,7 +2581,7 @@
       <c r="P16" s="28">
         <v>2</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="Q16" s="36">
         <v>0</v>
       </c>
       <c r="R16" s="28">
@@ -2605,7 +2619,7 @@
       <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="13" t="s">
         <v>19</v>
       </c>
@@ -2651,16 +2665,16 @@
       <c r="Q17" s="28">
         <v>1</v>
       </c>
-      <c r="R17" s="44">
-        <v>0</v>
-      </c>
-      <c r="S17" s="44">
-        <v>0</v>
-      </c>
-      <c r="T17" s="44">
-        <v>0</v>
-      </c>
-      <c r="U17" s="44">
+      <c r="R17" s="36">
+        <v>0</v>
+      </c>
+      <c r="S17" s="36">
+        <v>0</v>
+      </c>
+      <c r="T17" s="36">
+        <v>0</v>
+      </c>
+      <c r="U17" s="36">
         <v>0</v>
       </c>
       <c r="V17" s="28">
@@ -2686,7 +2700,7 @@
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
@@ -2741,7 +2755,7 @@
       <c r="T18" s="28">
         <v>4</v>
       </c>
-      <c r="U18" s="44">
+      <c r="U18" s="36">
         <v>0</v>
       </c>
       <c r="V18" s="28">
@@ -2767,7 +2781,7 @@
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -2827,7 +2841,7 @@
       <c r="U19" s="28">
         <v>1</v>
       </c>
-      <c r="V19" s="44">
+      <c r="V19" s="36">
         <v>0</v>
       </c>
       <c r="W19" s="28">
@@ -2850,7 +2864,7 @@
       <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="13" t="s">
         <v>45</v>
       </c>
@@ -2908,7 +2922,7 @@
       <c r="U20" s="28">
         <v>2</v>
       </c>
-      <c r="V20" s="44">
+      <c r="V20" s="36">
         <v>0</v>
       </c>
       <c r="W20" s="28">
@@ -2931,7 +2945,7 @@
       <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="13" t="s">
         <v>21</v>
       </c>
@@ -2989,7 +3003,7 @@
       <c r="U21" s="28">
         <v>1</v>
       </c>
-      <c r="V21" s="44">
+      <c r="V21" s="36">
         <v>0</v>
       </c>
       <c r="W21" s="28">
@@ -3012,7 +3026,7 @@
       <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="36"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="12" t="s">
         <v>8</v>
       </c>
@@ -3073,7 +3087,7 @@
       <c r="V22" s="28">
         <v>1</v>
       </c>
-      <c r="W22" s="44">
+      <c r="W22" s="36">
         <v>0</v>
       </c>
       <c r="X22" s="28">
@@ -3093,7 +3107,7 @@
       <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="B23" s="36"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
@@ -3154,7 +3168,7 @@
       <c r="V23" s="28">
         <v>2</v>
       </c>
-      <c r="W23" s="44">
+      <c r="W23" s="36">
         <v>0</v>
       </c>
       <c r="X23" s="28">
@@ -3174,7 +3188,7 @@
       <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
@@ -3235,7 +3249,7 @@
       <c r="V24" s="28">
         <v>1</v>
       </c>
-      <c r="W24" s="44">
+      <c r="W24" s="36">
         <v>0</v>
       </c>
       <c r="X24" s="28">
@@ -3255,7 +3269,7 @@
       <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25" s="36"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
@@ -3319,7 +3333,7 @@
       <c r="W25" s="28">
         <v>1</v>
       </c>
-      <c r="X25" s="44">
+      <c r="X25" s="36">
         <v>0</v>
       </c>
       <c r="Y25" s="28">
@@ -3336,7 +3350,7 @@
       <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="3" t="s">
         <v>24</v>
       </c>
@@ -3400,7 +3414,7 @@
       <c r="W26" s="28">
         <v>1</v>
       </c>
-      <c r="X26" s="44">
+      <c r="X26" s="36">
         <v>0</v>
       </c>
       <c r="Y26" s="28">
@@ -3417,7 +3431,7 @@
       <c r="A27" s="18">
         <v>26</v>
       </c>
-      <c r="B27" s="36"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="12" t="s">
         <v>25</v>
       </c>
@@ -3481,7 +3495,7 @@
       <c r="W27" s="28">
         <v>1</v>
       </c>
-      <c r="X27" s="44">
+      <c r="X27" s="36">
         <v>0</v>
       </c>
       <c r="Y27" s="28">
@@ -3498,7 +3512,7 @@
       <c r="A28" s="18">
         <v>27</v>
       </c>
-      <c r="B28" s="36"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="12" t="s">
         <v>26</v>
       </c>
@@ -3562,7 +3576,7 @@
       <c r="W28" s="28">
         <v>1</v>
       </c>
-      <c r="X28" s="44">
+      <c r="X28" s="36">
         <v>0</v>
       </c>
       <c r="Y28" s="28">
@@ -3646,7 +3660,7 @@
       <c r="X29" s="28">
         <v>1</v>
       </c>
-      <c r="Y29" s="44">
+      <c r="Y29" s="36">
         <v>0</v>
       </c>
       <c r="Z29" s="8"/>
@@ -3727,7 +3741,7 @@
       <c r="X30" s="28">
         <v>1</v>
       </c>
-      <c r="Y30" s="44">
+      <c r="Y30" s="36">
         <v>0</v>
       </c>
       <c r="Z30" s="8"/>
@@ -3808,7 +3822,7 @@
       <c r="X31" s="28">
         <v>1</v>
       </c>
-      <c r="Y31" s="44">
+      <c r="Y31" s="36">
         <v>0</v>
       </c>
       <c r="Z31" s="8"/>
@@ -3889,7 +3903,7 @@
       <c r="X32" s="28">
         <v>1</v>
       </c>
-      <c r="Y32" s="44">
+      <c r="Y32" s="36">
         <v>0</v>
       </c>
       <c r="Z32" s="8"/>
@@ -3915,7 +3929,7 @@
         <v>76</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" ref="F33:Y33" si="0">SUM(G2:G32)</f>
+        <f t="shared" ref="G33:Y33" si="0">SUM(G2:G32)</f>
         <v>72</v>
       </c>
       <c r="H33" s="1">
@@ -4016,8 +4030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4131,7 +4145,7 @@
       <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
@@ -4183,7 +4197,7 @@
       <c r="S2" s="25">
         <v>1</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="36">
         <v>0</v>
       </c>
       <c r="U2" s="28">
@@ -4209,7 +4223,7 @@
       <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
@@ -4261,7 +4275,7 @@
       <c r="S3" s="25">
         <v>1</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="36">
         <v>0</v>
       </c>
       <c r="U3" s="28">
@@ -4287,7 +4301,7 @@
       <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -4341,7 +4355,7 @@
       <c r="S4" s="25">
         <v>2</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="36">
         <v>0</v>
       </c>
       <c r="U4" s="28">
@@ -4367,7 +4381,7 @@
       <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="13" t="s">
         <v>30</v>
       </c>
@@ -4431,7 +4445,7 @@
       <c r="W5" s="25">
         <v>2</v>
       </c>
-      <c r="X5" s="28">
+      <c r="X5" s="36">
         <v>0</v>
       </c>
       <c r="Y5" s="28">
@@ -4445,7 +4459,7 @@
       <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="13" t="s">
         <v>31</v>
       </c>
@@ -4497,7 +4511,7 @@
       <c r="S6" s="25">
         <v>1</v>
       </c>
-      <c r="T6" s="28">
+      <c r="T6" s="36">
         <v>0</v>
       </c>
       <c r="U6" s="28">
@@ -4523,7 +4537,7 @@
       <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
@@ -4601,7 +4615,7 @@
       <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="41" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -4619,53 +4633,53 @@
       <c r="G8" s="25">
         <v>1</v>
       </c>
-      <c r="H8" s="25">
-        <v>1</v>
+      <c r="H8" s="34">
+        <v>0</v>
       </c>
       <c r="I8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="25">
         <v>0</v>
@@ -4681,7 +4695,7 @@
       <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
@@ -4745,7 +4759,7 @@
       <c r="W9" s="25">
         <v>2</v>
       </c>
-      <c r="X9" s="25">
+      <c r="X9" s="34">
         <v>0</v>
       </c>
       <c r="Y9" s="25">
@@ -4759,7 +4773,7 @@
       <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="13" t="s">
         <v>40</v>
       </c>
@@ -4823,7 +4837,7 @@
       <c r="W10" s="25">
         <v>1</v>
       </c>
-      <c r="X10" s="25">
+      <c r="X10" s="34">
         <v>0</v>
       </c>
       <c r="Y10" s="25">
@@ -4837,7 +4851,7 @@
       <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="13" t="s">
         <v>39</v>
       </c>
@@ -4901,7 +4915,7 @@
       <c r="W11" s="32">
         <v>2</v>
       </c>
-      <c r="X11" s="25">
+      <c r="X11" s="34">
         <v>0</v>
       </c>
       <c r="Y11" s="25">
@@ -4915,7 +4929,7 @@
       <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -4946,56 +4960,56 @@
         <v>2</v>
       </c>
       <c r="L12" s="25">
-        <v>2</v>
-      </c>
-      <c r="M12" s="25">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M12" s="34">
+        <v>0</v>
       </c>
       <c r="N12" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R12" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S12" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T12" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U12" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V12" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W12" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X12" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="13" t="s">
         <v>41</v>
       </c>
@@ -5073,7 +5087,7 @@
       <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="36"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="16" t="s">
         <v>42</v>
       </c>
@@ -5151,7 +5165,7 @@
       <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="38" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -5184,54 +5198,54 @@
       <c r="L15" s="28">
         <v>3</v>
       </c>
-      <c r="M15" s="28">
-        <v>3</v>
+      <c r="M15" s="36">
+        <v>0</v>
       </c>
       <c r="N15" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O15" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P15" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R15" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S15" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T15" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U15" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V15" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W15" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X15" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="13" t="s">
         <v>44</v>
       </c>
@@ -5309,7 +5323,7 @@
       <c r="A17" s="20">
         <v>16</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="13" t="s">
         <v>19</v>
       </c>
@@ -5338,56 +5352,56 @@
         <v>3</v>
       </c>
       <c r="L17" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O17" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P17" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R17" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S17" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T17" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U17" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V17" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W17" s="28">
-        <v>3</v>
-      </c>
-      <c r="X17" s="28">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="X17" s="36">
+        <v>0</v>
       </c>
       <c r="Y17" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>17</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
@@ -5410,62 +5424,62 @@
         <v>15</v>
       </c>
       <c r="J18" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K18" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L18" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M18" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N18" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O18" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P18" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R18" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S18" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T18" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="U18" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V18" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W18" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X18" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y18" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z18" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>18</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -5545,7 +5559,7 @@
       <c r="A20" s="20">
         <v>19</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="13" t="s">
         <v>21</v>
       </c>
@@ -5623,7 +5637,7 @@
       <c r="A21" s="20">
         <v>20</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="13" t="s">
         <v>21</v>
       </c>
@@ -5701,7 +5715,7 @@
       <c r="A22" s="20">
         <v>21</v>
       </c>
-      <c r="B22" s="36"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="12" t="s">
         <v>8</v>
       </c>
@@ -5779,7 +5793,7 @@
       <c r="A23" s="20">
         <v>22</v>
       </c>
-      <c r="B23" s="36"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
@@ -5857,7 +5871,7 @@
       <c r="A24" s="20">
         <v>23</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
@@ -5935,7 +5949,7 @@
       <c r="A25" s="20">
         <v>24</v>
       </c>
-      <c r="B25" s="36"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
@@ -6013,7 +6027,7 @@
       <c r="A26" s="20">
         <v>25</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="3" t="s">
         <v>24</v>
       </c>
@@ -6091,7 +6105,7 @@
       <c r="A27" s="20">
         <v>26</v>
       </c>
-      <c r="B27" s="36"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="12" t="s">
         <v>25</v>
       </c>
@@ -6169,7 +6183,7 @@
       <c r="A28" s="20">
         <v>27</v>
       </c>
-      <c r="B28" s="36"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="12" t="s">
         <v>26</v>
       </c>
@@ -6558,8 +6572,8 @@
     <row r="33" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30" t="s">
         <v>14</v>
@@ -6640,79 +6654,79 @@
       </c>
       <c r="H34" s="31">
         <f t="shared" ref="H34:Z34" si="0">SUM(H2:H32)</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I34" s="31">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J34" s="31">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K34" s="31">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L34" s="31">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M34" s="31">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="N34" s="31">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O34" s="31">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="P34" s="31">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="Q34" s="31">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="R34" s="31">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="S34" s="31">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="T34" s="31">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="U34" s="31">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="V34" s="31">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="W34" s="31">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="X34" s="31">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="Y34" s="31">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="Z34" s="31">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/5.Print-Backlog/Sprint-1.xlsx
+++ b/5.Print-Backlog/Sprint-1.xlsx
@@ -831,55 +831,55 @@
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>52</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>52</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4030,8 +4030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5737,56 +5737,56 @@
       <c r="I22" s="28">
         <v>1</v>
       </c>
-      <c r="J22" s="28">
-        <v>1</v>
+      <c r="J22" s="36">
+        <v>0</v>
       </c>
       <c r="K22" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5815,56 +5815,56 @@
       <c r="I23" s="28">
         <v>2</v>
       </c>
-      <c r="J23" s="28">
-        <v>2</v>
+      <c r="J23" s="36">
+        <v>0</v>
       </c>
       <c r="K23" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S23" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T23" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U23" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V23" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W23" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X23" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5893,56 +5893,56 @@
       <c r="I24" s="28">
         <v>1</v>
       </c>
-      <c r="J24" s="28">
-        <v>1</v>
+      <c r="J24" s="36">
+        <v>0</v>
       </c>
       <c r="K24" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -5971,56 +5971,56 @@
       <c r="I25" s="28">
         <v>1</v>
       </c>
-      <c r="J25" s="28">
-        <v>1</v>
+      <c r="J25" s="36">
+        <v>0</v>
       </c>
       <c r="K25" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6049,56 +6049,56 @@
       <c r="I26" s="28">
         <v>1</v>
       </c>
-      <c r="J26" s="28">
-        <v>1</v>
+      <c r="J26" s="36">
+        <v>0</v>
       </c>
       <c r="K26" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6127,56 +6127,56 @@
       <c r="I27" s="28">
         <v>1</v>
       </c>
-      <c r="J27" s="28">
-        <v>1</v>
+      <c r="J27" s="36">
+        <v>0</v>
       </c>
       <c r="K27" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6205,56 +6205,56 @@
       <c r="I28" s="28">
         <v>1</v>
       </c>
-      <c r="J28" s="28">
-        <v>1</v>
+      <c r="J28" s="36">
+        <v>0</v>
       </c>
       <c r="K28" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -6662,71 +6662,71 @@
       </c>
       <c r="J34" s="31">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K34" s="31">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L34" s="31">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M34" s="31">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N34" s="31">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O34" s="31">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="P34" s="31">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Q34" s="31">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="R34" s="31">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="S34" s="31">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="T34" s="31">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U34" s="31">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="V34" s="31">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="W34" s="31">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="X34" s="31">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Y34" s="31">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Z34" s="31">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
